--- a/Каталог вырубных ножей.xlsx
+++ b/Каталог вырубных ножей.xlsx
@@ -5,10 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Вырубка\Rotazija\Каталог ножей в pdf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Вырубка\Rotazija\Каталог ножей\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F873264-F609-4458-8B40-4A1005C260C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5443B6D4-FE51-4245-98E0-E01E9952D468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="eNZ3DEWHWUbEJ64mIZuGDJ9utI0XMNsy+3jTw4sbn9v6PPAjuOJI1Pc/fpmsqM2TfB6ij++LPsoh99D+EMSFvw==" workbookSaltValue="pY4gvKVwq+HUAIGIZq8nbg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,9 +20,11 @@
   </sheets>
   <definedNames>
     <definedName name="_FilterDatabase" localSheetId="0" hidden="1">NilPeter!$A$1:$L$400</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Lesko!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">MarkAndy!$A$1:$L$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NilPeter!$A$1:$L$400</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="415">
   <si>
     <t>№</t>
   </si>
@@ -1143,36 +1146,21 @@
     <t>дублируется с 011, рабочий</t>
   </si>
   <si>
-    <t>PP SOLID WHITE FTC 50 UPM RAFLATAC</t>
-  </si>
-  <si>
     <t>старый, узкий материал</t>
   </si>
   <si>
     <t>большое расстояние</t>
   </si>
   <si>
-    <t>Clear PP</t>
-  </si>
-  <si>
     <t>PP60 TOP WHITE</t>
   </si>
   <si>
-    <t>PE85 CAST TOP WHITE</t>
-  </si>
-  <si>
     <t>Paper</t>
   </si>
   <si>
-    <t>TTOP</t>
-  </si>
-  <si>
     <t>Clear/Paper</t>
   </si>
   <si>
-    <t>Clear-Paper</t>
-  </si>
-  <si>
     <t>RLL</t>
   </si>
   <si>
@@ -1291,6 +1279,12 @@
   </si>
   <si>
     <t>очень старый</t>
+  </si>
+  <si>
+    <t>003A</t>
+  </si>
+  <si>
+    <t>004A</t>
   </si>
 </sst>
 </file>
@@ -1414,7 +1408,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1534,6 +1528,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1885,8 +1883,8 @@
   <dimension ref="A1:M400"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K401" sqref="K401"/>
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K245" sqref="K245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1898,7 +1896,7 @@
     <col min="7" max="7" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="40.85546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="24" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
@@ -1936,7 +1934,7 @@
         <v>57</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>60</v>
@@ -1970,13 +1968,13 @@
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J2" s="1">
         <v>200</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L2" s="24" t="s">
         <v>56</v>
@@ -2010,13 +2008,13 @@
         <v>1.66E-3</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J3" s="1">
         <v>140</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L3" s="24" t="s">
         <v>56</v>
@@ -2050,13 +2048,13 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J4" s="1">
         <v>200</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L4" s="24" t="s">
         <v>56</v>
@@ -2090,13 +2088,13 @@
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J5" s="1">
         <v>200</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L5" s="24" t="s">
         <v>56</v>
@@ -2130,13 +2128,13 @@
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J6" s="1">
         <v>140</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L6" s="24" t="s">
         <v>56</v>
@@ -2170,13 +2168,13 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J7" s="1">
         <v>190</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L7" s="24" t="s">
         <v>56</v>
@@ -2210,13 +2208,13 @@
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J8" s="1">
         <v>220</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L8" s="24" t="s">
         <v>56</v>
@@ -2250,13 +2248,13 @@
         <v>4.45E-3</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J9" s="1">
         <v>220</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L9" s="24" t="s">
         <v>56</v>
@@ -2290,13 +2288,13 @@
         <v>7.7099999999999998E-3</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J10" s="1">
         <v>200</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L10" s="24" t="s">
         <v>56</v>
@@ -2330,13 +2328,13 @@
         <v>1.6071428571429E-3</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J11" s="1">
         <v>190</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L11" s="24" t="s">
         <v>56</v>
@@ -2371,13 +2369,13 @@
         <v>2.4666666666666591E-3</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J12" s="1">
         <v>220</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="M12" s="2"/>
     </row>
@@ -2409,13 +2407,13 @@
         <v>2.8599999999999993E-3</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J13" s="1">
         <v>140</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L13" s="24" t="s">
         <v>56</v>
@@ -2456,7 +2454,7 @@
         <v>220</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="M14" s="2"/>
     </row>
@@ -2488,13 +2486,13 @@
         <v>2E-3</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J15" s="1">
         <v>190</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L15" s="24" t="s">
         <v>56</v>
@@ -2529,13 +2527,13 @@
         <v>1.9599999999999908E-3</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J16" s="1">
         <v>190</v>
       </c>
       <c r="K16" s="44" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="M16" s="2"/>
     </row>
@@ -2567,13 +2565,13 @@
         <v>2.0033333333333353E-3</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J17" s="1">
         <v>190</v>
       </c>
       <c r="K17" s="43" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="M17" s="2"/>
     </row>
@@ -2605,13 +2603,13 @@
         <v>9.2999999999999975E-3</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J18" s="1">
         <v>170</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L18" s="24" t="s">
         <v>56</v>
@@ -2646,13 +2644,13 @@
         <v>8.8999999999999774E-3</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J19" s="1">
         <v>190</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="M19" s="2"/>
     </row>
@@ -2684,13 +2682,13 @@
         <v>3.1799999999999953E-3</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J20" s="1">
         <v>170</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="M20" s="2"/>
     </row>
@@ -2722,13 +2720,13 @@
         <v>3.46875E-3</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J21" s="1">
         <v>170</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="M21" s="2"/>
     </row>
@@ -2760,13 +2758,13 @@
         <v>2.1499999999999987E-3</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J22" s="1">
         <v>170</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="M22" s="2"/>
     </row>
@@ -2798,13 +2796,13 @@
         <v>3.199999999999998E-3</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J23" s="1">
         <v>220</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="M23" s="2"/>
     </row>
@@ -2836,16 +2834,16 @@
         <v>1.5249999999999999E-3</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J24" s="1">
         <v>110</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L24" s="24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M24" s="2"/>
     </row>
@@ -2877,13 +2875,13 @@
         <v>1.8599999999999995E-2</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J25" s="1">
         <v>220</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L25" s="24" t="s">
         <v>56</v>
@@ -2924,7 +2922,7 @@
         <v>170</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="M26" s="2"/>
     </row>
@@ -2956,13 +2954,13 @@
         <v>2.2142857142857142E-3</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J27" s="1">
         <v>200</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L27" s="24" t="s">
         <v>56</v>
@@ -2997,13 +2995,13 @@
         <v>2.0999999999999851E-3</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J28" s="1">
         <v>170</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L28" s="24" t="s">
         <v>56</v>
@@ -3038,13 +3036,13 @@
         <v>2.1666666666666666E-3</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J29" s="1">
         <v>170</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L29" s="24" t="s">
         <v>56</v>
@@ -3079,13 +3077,13 @@
         <v>2.0999999999999851E-3</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J30" s="1">
         <v>170</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L30" s="24" t="s">
         <v>56</v>
@@ -3120,13 +3118,13 @@
         <v>8.8999999999999774E-3</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J31" s="1">
         <v>190</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="M31" s="2"/>
     </row>
@@ -3158,7 +3156,7 @@
         <v>2.3999999999999772E-3</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J32" s="1">
         <v>140</v>
@@ -3199,7 +3197,7 @@
         <v>3.7250000000000035E-3</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J33" s="1">
         <v>230</v>
@@ -3238,7 +3236,7 @@
         <v>4.0999999999999847E-3</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J34" s="1">
         <v>190</v>
@@ -3247,7 +3245,7 @@
         <v>63</v>
       </c>
       <c r="L34" s="24" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="M34" s="2"/>
     </row>
@@ -3279,7 +3277,7 @@
         <v>3.1799999999999927E-3</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J35" s="1">
         <v>220</v>
@@ -3288,7 +3286,7 @@
         <v>63</v>
       </c>
       <c r="L35" s="24" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="M35" s="2"/>
     </row>
@@ -3320,16 +3318,16 @@
         <v>2.8599999999999993E-3</v>
       </c>
       <c r="I36" s="19" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J36" s="18">
         <v>220</v>
       </c>
       <c r="K36" s="34" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="L36" s="26" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="M36" s="21"/>
     </row>
@@ -3361,13 +3359,13 @@
         <v>2.4333333333333277E-3</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J37" s="1">
         <v>190</v>
       </c>
       <c r="K37" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -3398,7 +3396,7 @@
         <v>3.5999999999999943E-3</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J38" s="1">
         <v>190</v>
@@ -3439,16 +3437,16 @@
         <v>2.6666666666666666E-3</v>
       </c>
       <c r="I39" s="19" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J39" s="18">
         <v>200</v>
       </c>
       <c r="K39" s="34" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L39" s="26" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="M39" s="21"/>
     </row>
@@ -3486,7 +3484,7 @@
         <v>140</v>
       </c>
       <c r="K40" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L40" s="24" t="s">
         <v>56</v>
@@ -3527,7 +3525,7 @@
         <v>170</v>
       </c>
       <c r="K41" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L41" s="24" t="s">
         <v>56</v>
@@ -3568,7 +3566,7 @@
         <v>170</v>
       </c>
       <c r="K42" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L42" s="24" t="s">
         <v>56</v>
@@ -3603,13 +3601,13 @@
         <v>3.1333333333333257E-3</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J43" s="1">
         <v>170</v>
       </c>
       <c r="K43" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L43" s="24" t="s">
         <v>56</v>
@@ -3650,7 +3648,7 @@
         <v>170</v>
       </c>
       <c r="K44" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L44" s="24" t="s">
         <v>56</v>
@@ -3691,7 +3689,7 @@
         <v>170</v>
       </c>
       <c r="K45" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L45" s="24" t="s">
         <v>56</v>
@@ -3732,7 +3730,7 @@
         <v>170</v>
       </c>
       <c r="K46" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L46" s="24" t="s">
         <v>56</v>
@@ -3773,10 +3771,10 @@
         <v>170</v>
       </c>
       <c r="K47" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L47" s="24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M47" s="2"/>
     </row>
@@ -3808,13 +3806,13 @@
         <v>3.3249999999999959E-3</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J48" s="1">
         <v>190</v>
       </c>
       <c r="K48" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="M48" s="2"/>
     </row>
@@ -3846,13 +3844,13 @@
         <v>6.4333333333333274E-3</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J49" s="1">
         <v>170</v>
       </c>
       <c r="K49" s="22" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="M49" s="2"/>
     </row>
@@ -3884,13 +3882,13 @@
         <v>7.8999999999999765E-3</v>
       </c>
       <c r="I50" s="19" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J50" s="18">
         <v>170</v>
       </c>
       <c r="K50" s="34" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L50" s="26"/>
       <c r="M50" s="21"/>
@@ -3929,10 +3927,10 @@
         <v>140</v>
       </c>
       <c r="K51" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L51" s="24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M51" s="2"/>
     </row>
@@ -3964,7 +3962,7 @@
         <v>6.6249999999999998E-3</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J52" s="1">
         <v>200</v>
@@ -4011,10 +4009,10 @@
         <v>140</v>
       </c>
       <c r="K53" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L53" s="24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M53" s="2"/>
     </row>
@@ -4052,7 +4050,7 @@
         <v>190</v>
       </c>
       <c r="K54" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L54" s="24" t="s">
         <v>56</v>
@@ -4093,10 +4091,10 @@
         <v>140</v>
       </c>
       <c r="K55" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L55" s="24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -4127,13 +4125,13 @@
         <v>2.9350000000000023E-3</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J56" s="1">
         <v>190</v>
       </c>
       <c r="K56" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L56" s="24" t="s">
         <v>56</v>
@@ -4173,7 +4171,7 @@
         <v>190</v>
       </c>
       <c r="K57" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L57" s="24" t="s">
         <v>56</v>
@@ -4213,10 +4211,10 @@
         <v>140</v>
       </c>
       <c r="K58" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L58" s="24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -4253,10 +4251,10 @@
         <v>140</v>
       </c>
       <c r="K59" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L59" s="24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -4287,16 +4285,16 @@
         <v>1.9874999999999971E-3</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J60" s="1">
         <v>220</v>
       </c>
       <c r="K60" s="42" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L60" s="41" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -4327,13 +4325,13 @@
         <v>9.7999999999999823E-3</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J61" s="1">
         <v>220</v>
       </c>
       <c r="K61" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -4370,7 +4368,7 @@
         <v>220</v>
       </c>
       <c r="K62" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -4401,13 +4399,13 @@
         <v>2.4666666666666591E-3</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J63" s="1">
         <v>220</v>
       </c>
       <c r="K63" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L63" s="24" t="s">
         <v>367</v>
@@ -4447,7 +4445,7 @@
         <v>190</v>
       </c>
       <c r="K64" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L64" s="24" t="s">
         <v>56</v>
@@ -4487,7 +4485,7 @@
         <v>190</v>
       </c>
       <c r="K65" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L65" s="24" t="s">
         <v>56</v>
@@ -4521,7 +4519,7 @@
         <v>2.7199999999999989E-3</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J66" s="1">
         <v>170</v>
@@ -4561,13 +4559,13 @@
         <v>3.5999999999999943E-3</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J67" s="1">
         <v>220</v>
       </c>
       <c r="K67" s="22" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -4598,13 +4596,13 @@
         <v>3.1999999999999884E-3</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J68" s="1">
         <v>220</v>
       </c>
       <c r="K68" s="22" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="L68" s="24" t="s">
         <v>56</v>
@@ -4638,7 +4636,7 @@
         <v>2.6666666666666666E-3</v>
       </c>
       <c r="I69" s="37" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J69" s="36">
         <v>190</v>
@@ -4647,7 +4645,7 @@
         <v>63</v>
       </c>
       <c r="L69" s="39" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -4678,13 +4676,13 @@
         <v>2.9499999999999887E-3</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J70" s="1">
         <v>230</v>
       </c>
       <c r="K70" s="22" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -4715,7 +4713,7 @@
         <v>2.6399999999999978E-3</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J71" s="1">
         <v>220</v>
@@ -4758,10 +4756,10 @@
         <v>140</v>
       </c>
       <c r="K72" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L72" s="24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -4798,10 +4796,10 @@
         <v>140</v>
       </c>
       <c r="K73" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L73" s="24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -4838,10 +4836,10 @@
         <v>140</v>
       </c>
       <c r="K74" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L74" s="24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -4872,16 +4870,16 @@
         <v>3.9333333333333321E-3</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J75" s="1">
         <v>140</v>
       </c>
       <c r="K75" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L75" s="24" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -4918,13 +4916,13 @@
         <v>200</v>
       </c>
       <c r="K76" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L76" s="24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="30" t="s">
         <v>89</v>
       </c>
@@ -4952,16 +4950,16 @@
         <v>2.4666666666666591E-3</v>
       </c>
       <c r="I77" s="12" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="J77" s="11">
         <v>140</v>
       </c>
       <c r="K77" s="23" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L77" s="24" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -4992,13 +4990,13 @@
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J78" s="1">
         <v>200</v>
       </c>
       <c r="K78" s="22" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -5029,7 +5027,7 @@
         <v>5.8499999999999941E-3</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J79" s="1">
         <v>190</v>
@@ -5066,13 +5064,13 @@
         <v>2.5777777777777765E-3</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J80" s="1">
         <v>200</v>
       </c>
       <c r="K80" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -5103,13 +5101,13 @@
         <v>3.5499999999999972E-3</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J81" s="1">
         <v>190</v>
       </c>
       <c r="K81" s="22" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -5140,13 +5138,13 @@
         <v>2.5777777777777765E-3</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J82" s="1">
         <v>190</v>
       </c>
       <c r="K82" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -5177,16 +5175,16 @@
         <v>3.1666666666666666E-3</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J83" s="1">
         <v>140</v>
       </c>
       <c r="K83" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L83" s="24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -5217,16 +5215,16 @@
         <v>3.866666666666665E-3</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J84" s="1">
         <v>140</v>
       </c>
       <c r="K84" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L84" s="24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -5257,16 +5255,16 @@
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J85" s="1">
         <v>140</v>
       </c>
       <c r="K85" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L85" s="24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -5297,13 +5295,13 @@
         <v>3.7333333333333294E-3</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="J86" s="1">
         <v>190</v>
       </c>
       <c r="K86" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L86" s="24" t="s">
         <v>56</v>
@@ -5337,16 +5335,16 @@
         <v>6.3999999999999767E-4</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J87" s="1">
         <v>100</v>
       </c>
       <c r="K87" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L87" s="24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="88" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -5399,16 +5397,16 @@
         <v>3.0666666666666629E-3</v>
       </c>
       <c r="I89" s="19" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J89" s="18">
         <v>230</v>
       </c>
       <c r="K89" s="34" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="L89" s="26" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -5445,7 +5443,7 @@
         <v>170</v>
       </c>
       <c r="K90" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L90" s="24" t="s">
         <v>56</v>
@@ -5479,13 +5477,13 @@
         <v>5.8999999999999773E-3</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J91" s="1">
         <v>170</v>
       </c>
       <c r="K91" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -5516,13 +5514,13 @@
         <v>5.1624999999999978E-3</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J92" s="1">
         <v>190</v>
       </c>
       <c r="K92" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -5553,13 +5551,13 @@
         <v>2.7999999999999974E-3</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J93" s="1">
         <v>190</v>
       </c>
       <c r="K93" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L93" s="24" t="s">
         <v>56</v>
@@ -5593,7 +5591,7 @@
         <v>2.1333333333333256E-3</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J94" s="1">
         <v>200</v>
@@ -5633,7 +5631,7 @@
         <v>2.7333333333333294E-3</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J95" s="1">
         <v>140</v>
@@ -5642,7 +5640,7 @@
         <v>63</v>
       </c>
       <c r="L95" s="24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -5673,16 +5671,16 @@
         <v>1.0500000000000001E-2</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J96" s="1">
         <v>140</v>
       </c>
       <c r="K96" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L96" s="24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -5713,13 +5711,13 @@
         <v>2.4499999999999956E-3</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J97" s="1">
         <v>170</v>
       </c>
       <c r="K97" s="22" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="98" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -5750,13 +5748,13 @@
         <v>5.1750000000000112E-3</v>
       </c>
       <c r="I98" s="19" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J98" s="18">
         <v>200</v>
       </c>
       <c r="K98" s="34" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L98" s="26"/>
     </row>
@@ -5788,16 +5786,16 @@
         <v>3.4375E-3</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J99" s="1">
         <v>140</v>
       </c>
       <c r="K99" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L99" s="24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -5828,16 +5826,16 @@
         <v>2.5499999999999971E-3</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J100" s="1">
         <v>140</v>
       </c>
       <c r="K100" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L100" s="24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -5868,13 +5866,13 @@
         <v>3.5999999999999943E-3</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J101" s="1">
         <v>220</v>
       </c>
       <c r="K101" s="22" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -5905,13 +5903,13 @@
         <v>2.0666666666666628E-3</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J102" s="1">
         <v>200</v>
       </c>
       <c r="K102" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="103" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -5942,13 +5940,13 @@
         <v>2.5846153846153844E-3</v>
       </c>
       <c r="I103" s="19" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J103" s="18">
         <v>220</v>
       </c>
       <c r="K103" s="34" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L103" s="26"/>
     </row>
@@ -5980,13 +5978,13 @@
         <v>2.7333333333333294E-3</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J104" s="1">
         <v>200</v>
       </c>
       <c r="K104" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="105" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -6033,13 +6031,13 @@
         <v>3.3199999999999992E-3</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J106" s="1">
         <v>190</v>
       </c>
       <c r="K106" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -6070,13 +6068,13 @@
         <v>2.0666666666666628E-3</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J107" s="1">
         <v>200</v>
       </c>
       <c r="K107" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -6113,10 +6111,10 @@
         <v>140</v>
       </c>
       <c r="K108" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L108" s="24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -6147,13 +6145,13 @@
         <v>1.8666666666666647E-3</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J109" s="1">
         <v>200</v>
       </c>
       <c r="K109" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -6190,10 +6188,10 @@
         <v>140</v>
       </c>
       <c r="K110" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L110" s="24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -6224,7 +6222,7 @@
         <v>9.1333333333333249E-3</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J111" s="1">
         <v>200</v>
@@ -6299,7 +6297,7 @@
         <v>200</v>
       </c>
       <c r="K114" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
@@ -6330,16 +6328,16 @@
         <v>4.6666666666666671E-3</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J115" s="1">
         <v>140</v>
       </c>
       <c r="K115" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L115" s="24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
@@ -6370,16 +6368,16 @@
         <v>4.9583333333333328E-3</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J116" s="1">
         <v>140</v>
       </c>
       <c r="K116" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L116" s="24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
@@ -6410,13 +6408,13 @@
         <v>3.1999999999999884E-3</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J117" s="1">
         <v>170</v>
       </c>
       <c r="K117" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
@@ -6447,7 +6445,7 @@
         <v>3.3249999999999959E-3</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J118" s="1">
         <v>200</v>
@@ -6484,13 +6482,13 @@
         <v>1.0500000000000001E-2</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J119" s="1">
         <v>220</v>
       </c>
       <c r="K119" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
@@ -6521,13 +6519,13 @@
         <v>6.2999999999999827E-3</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J120" s="1">
         <v>170</v>
       </c>
       <c r="K120" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
@@ -6558,13 +6556,13 @@
         <v>3.9749999999999942E-3</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J121" s="1">
         <v>170</v>
       </c>
       <c r="K121" s="22" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
@@ -6595,13 +6593,13 @@
         <v>3.9499999999999882E-3</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J122" s="1">
         <v>200</v>
       </c>
       <c r="K122" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
@@ -6632,13 +6630,13 @@
         <v>3.1999999999999884E-3</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J123" s="1">
         <v>200</v>
       </c>
       <c r="K123" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
@@ -6669,7 +6667,7 @@
         <v>3.3249999999999959E-3</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J124" s="1">
         <v>170</v>
@@ -6706,7 +6704,7 @@
         <v>2.3199999999999991E-3</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J125" s="1">
         <v>140</v>
@@ -6743,13 +6741,13 @@
         <v>2.5999999999999942E-3</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J126" s="1">
         <v>170</v>
       </c>
       <c r="K126" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
@@ -6780,13 +6778,13 @@
         <v>2.9666666666666591E-3</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J127" s="1">
         <v>170</v>
       </c>
       <c r="K127" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="128" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -6833,7 +6831,7 @@
         <v>3.7333333333333294E-3</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J129" s="1">
         <v>200</v>
@@ -6870,16 +6868,16 @@
         <v>1.4999999999999986E-2</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J130" s="1">
         <v>200</v>
       </c>
       <c r="K130" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L130" s="24" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
@@ -6910,13 +6908,13 @@
         <v>2.6666666666666666E-3</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J131" s="1">
         <v>220</v>
       </c>
       <c r="K131" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
@@ -6947,13 +6945,13 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J132" s="1">
         <v>170</v>
       </c>
       <c r="K132" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
@@ -6984,7 +6982,7 @@
         <v>5.7199999999999985E-3</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J133" s="1">
         <v>170</v>
@@ -7021,13 +7019,13 @@
         <v>2.875E-3</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J134" s="1">
         <v>190</v>
       </c>
       <c r="K134" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
@@ -7058,13 +7056,13 @@
         <v>2.6571428571428562E-3</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J135" s="1">
         <v>200</v>
       </c>
       <c r="K135" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
@@ -7095,13 +7093,13 @@
         <v>4.2999999999999974E-3</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J136" s="1">
         <v>190</v>
       </c>
       <c r="K136" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
@@ -7132,13 +7130,13 @@
         <v>2.1624999999999978E-3</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J137" s="1">
         <v>220</v>
       </c>
       <c r="K137" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="138" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -7169,7 +7167,7 @@
         <v>3.9583333333333337E-3</v>
       </c>
       <c r="I138" s="19" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J138" s="18">
         <v>170</v>
@@ -7207,13 +7205,13 @@
         <v>2.1624999999999978E-3</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J139" s="1">
         <v>200</v>
       </c>
       <c r="K139" s="22" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="140" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -7244,7 +7242,7 @@
         <v>4.4333333333333273E-3</v>
       </c>
       <c r="I140" s="19" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J140" s="18">
         <v>180</v>
@@ -7282,16 +7280,16 @@
         <v>8.3999999999999769E-3</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J141" s="1">
         <v>170</v>
       </c>
       <c r="K141" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L141" s="24" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
@@ -7322,16 +7320,16 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J142" s="1">
         <v>190</v>
       </c>
       <c r="K142" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L142" s="24" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
@@ -7362,13 +7360,13 @@
         <v>6.1999999999999885E-3</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J143" s="1">
         <v>170</v>
       </c>
       <c r="K143" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
@@ -7399,13 +7397,13 @@
         <v>2.8666666666666649E-3</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J144" s="1">
         <v>220</v>
       </c>
       <c r="K144" s="22" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
@@ -7436,13 +7434,13 @@
         <v>4.1499999999999983E-3</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J145" s="1">
         <v>190</v>
       </c>
       <c r="K145" s="22" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
@@ -7473,7 +7471,7 @@
         <v>5.9499999999999883E-3</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J146" s="1">
         <v>190</v>
@@ -7510,7 +7508,7 @@
         <v>6.6499999999999919E-3</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J147" s="1">
         <v>200</v>
@@ -7547,13 +7545,13 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J148" s="1">
         <v>200</v>
       </c>
       <c r="K148" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
@@ -7584,7 +7582,7 @@
         <v>4.2999999999999974E-3</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J149" s="1">
         <v>200</v>
@@ -7621,7 +7619,7 @@
         <v>4.6666666666666671E-3</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J150" s="1">
         <v>140</v>
@@ -7630,7 +7628,7 @@
         <v>63</v>
       </c>
       <c r="L150" s="24" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
@@ -7661,13 +7659,13 @@
         <v>3.3249999999999959E-3</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J151" s="1">
         <v>200</v>
       </c>
       <c r="K151" s="22" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
@@ -7698,13 +7696,13 @@
         <v>3.9124999999999941E-3</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J152" s="1">
         <v>230</v>
       </c>
       <c r="K152" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
@@ -7735,7 +7733,7 @@
         <v>4.6666666666666671E-3</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J153" s="1">
         <v>140</v>
@@ -7744,7 +7742,7 @@
         <v>63</v>
       </c>
       <c r="L153" s="24" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
@@ -7775,7 +7773,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>371</v>
+        <v>62</v>
       </c>
       <c r="J154" s="1">
         <v>220</v>
@@ -7812,13 +7810,13 @@
         <v>1.9375E-3</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>371</v>
+        <v>62</v>
       </c>
       <c r="J155" s="1">
         <v>180</v>
       </c>
       <c r="K155" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
@@ -7849,13 +7847,13 @@
         <v>2.142857142857143E-3</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J156" s="1">
         <v>190</v>
       </c>
       <c r="K156" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
@@ -7886,13 +7884,13 @@
         <v>2.2399999999999998E-3</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J157" s="1">
         <v>220</v>
       </c>
       <c r="K157" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
@@ -7923,13 +7921,13 @@
         <v>7.6499999999999919E-3</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J158" s="1">
         <v>170</v>
       </c>
       <c r="K158" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
@@ -7960,13 +7958,13 @@
         <v>5.875E-3</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>371</v>
+        <v>62</v>
       </c>
       <c r="J159" s="1">
         <v>200</v>
       </c>
       <c r="K159" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
@@ -7997,13 +7995,13 @@
         <v>5.6666666666666671E-3</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J160" s="1">
         <v>190</v>
       </c>
       <c r="K160" s="22" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
@@ -8034,13 +8032,13 @@
         <v>1.9999999999999857E-3</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J161" s="1">
         <v>200</v>
       </c>
       <c r="K161" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
@@ -8071,7 +8069,7 @@
         <v>7.9499999999999883E-3</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J162" s="1">
         <v>200</v>
@@ -8108,7 +8106,7 @@
         <v>3.4375E-3</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J163" s="1">
         <v>220</v>
@@ -8145,7 +8143,7 @@
         <v>3.1333333333333257E-3</v>
       </c>
       <c r="I164" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J164" s="1">
         <v>200</v>
@@ -8182,13 +8180,13 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="I165" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J165" s="1">
         <v>200</v>
       </c>
       <c r="K165" s="22" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
@@ -8219,7 +8217,7 @@
         <v>4.3249999999999955E-3</v>
       </c>
       <c r="I166" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J166" s="1">
         <v>190</v>
@@ -8256,7 +8254,7 @@
         <v>3.2569999999999956E-3</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J167" s="1">
         <v>230</v>
@@ -8293,13 +8291,13 @@
         <v>4.9375E-3</v>
       </c>
       <c r="I168" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J168" s="1">
         <v>140</v>
       </c>
       <c r="K168" s="22" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
@@ -8330,13 +8328,13 @@
         <v>2.7333333333333294E-3</v>
       </c>
       <c r="I169" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J169" s="1">
         <v>200</v>
       </c>
       <c r="K169" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
@@ -8367,13 +8365,13 @@
         <v>3.1333333333333257E-3</v>
       </c>
       <c r="I170" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J170" s="1">
         <v>200</v>
       </c>
       <c r="K170" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
@@ -8404,13 +8402,13 @@
         <v>3.3999999999999773E-3</v>
       </c>
       <c r="I171" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J171" s="1">
         <v>230</v>
       </c>
       <c r="K171" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
@@ -8441,7 +8439,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="I172" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J172" s="1">
         <v>190</v>
@@ -8478,13 +8476,13 @@
         <v>3.1799999999999953E-3</v>
       </c>
       <c r="I173" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J173" s="1">
         <v>230</v>
       </c>
       <c r="K173" s="22" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
@@ -8515,13 +8513,13 @@
         <v>7.3999999999999769E-3</v>
       </c>
       <c r="I174" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J174" s="1">
         <v>230</v>
       </c>
       <c r="K174" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
@@ -8552,13 +8550,13 @@
         <v>2.3999999999999772E-3</v>
       </c>
       <c r="I175" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J175" s="1">
         <v>230</v>
       </c>
       <c r="K175" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
@@ -8589,13 +8587,13 @@
         <v>2.0866666666666655E-3</v>
       </c>
       <c r="I176" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J176" s="1">
         <v>230</v>
       </c>
       <c r="K176" s="22" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
@@ -8626,7 +8624,7 @@
         <v>3.1624999999999943E-3</v>
       </c>
       <c r="I177" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J177" s="1">
         <v>200</v>
@@ -8663,13 +8661,13 @@
         <v>2.9861111111111113E-3</v>
       </c>
       <c r="I178" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J178" s="1">
         <v>220</v>
       </c>
       <c r="K178" s="22" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
@@ -8700,13 +8698,13 @@
         <v>2.3999999999999772E-3</v>
       </c>
       <c r="I179" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J179" s="1">
         <v>190</v>
       </c>
       <c r="K179" s="22" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
@@ -8737,7 +8735,7 @@
         <v>5.1999999999999885E-3</v>
       </c>
       <c r="I180" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J180" s="1">
         <v>170</v>
@@ -8774,13 +8772,13 @@
         <v>4.4333333333333273E-3</v>
       </c>
       <c r="I181" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J181" s="1">
         <v>170</v>
       </c>
       <c r="K181" s="22" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
@@ -8811,13 +8809,13 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="I182" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J182" s="1">
         <v>190</v>
       </c>
       <c r="K182" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
@@ -8848,13 +8846,13 @@
         <v>3.9749999999999942E-3</v>
       </c>
       <c r="I183" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J183" s="1">
         <v>230</v>
       </c>
       <c r="K183" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
@@ -8885,7 +8883,7 @@
         <v>1.0500000000000001E-2</v>
       </c>
       <c r="I184" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J184" s="1">
         <v>190</v>
@@ -8922,13 +8920,13 @@
         <v>4.5999999999999843E-3</v>
       </c>
       <c r="I185" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J185" s="1">
         <v>220</v>
       </c>
       <c r="K185" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
@@ -8959,13 +8957,13 @@
         <v>4.3249999999999886E-3</v>
       </c>
       <c r="I186" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J186" s="1">
         <v>170</v>
       </c>
       <c r="K186" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
@@ -8996,13 +8994,13 @@
         <v>2.3347826086956517E-3</v>
       </c>
       <c r="I187" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J187" s="1">
         <v>140</v>
       </c>
       <c r="K187" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
@@ -9033,7 +9031,7 @@
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="I188" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J188" s="1">
         <v>200</v>
@@ -9070,13 +9068,13 @@
         <v>4.2999999999999974E-3</v>
       </c>
       <c r="I189" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J189" s="1">
         <v>190</v>
       </c>
       <c r="K189" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
@@ -9107,7 +9105,7 @@
         <v>3.7199999999999989E-3</v>
       </c>
       <c r="I190" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J190" s="1">
         <v>220</v>
@@ -9144,7 +9142,7 @@
         <v>4.6666666666666671E-3</v>
       </c>
       <c r="I191" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J191" s="1">
         <v>220</v>
@@ -9181,13 +9179,13 @@
         <v>3.7343749999999998E-3</v>
       </c>
       <c r="I192" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J192" s="1">
         <v>170</v>
       </c>
       <c r="K192" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
@@ -9218,13 +9216,13 @@
         <v>2.5777777777777765E-3</v>
       </c>
       <c r="I193" s="3" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="J193" s="1">
         <v>170</v>
       </c>
       <c r="K193" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
@@ -9255,13 +9253,13 @@
         <v>2.9599999999999913E-3</v>
       </c>
       <c r="I194" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J194" s="1">
         <v>220</v>
       </c>
       <c r="K194" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
@@ -9299,13 +9297,13 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="I196" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J196" s="1">
         <v>190</v>
       </c>
       <c r="K196" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
@@ -9336,13 +9334,13 @@
         <v>2.8649999999999978E-3</v>
       </c>
       <c r="I197" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J197" s="1">
         <v>200</v>
       </c>
       <c r="K197" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
@@ -9373,13 +9371,13 @@
         <v>4.9375E-3</v>
       </c>
       <c r="I198" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J198" s="1">
         <v>200</v>
       </c>
       <c r="K198" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
@@ -9410,7 +9408,7 @@
         <v>1.6333333333333258E-3</v>
       </c>
       <c r="I199" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J199" s="1">
         <v>190</v>
@@ -9447,7 +9445,7 @@
         <v>3.15E-3</v>
       </c>
       <c r="I200" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J200" s="1">
         <v>190</v>
@@ -9484,13 +9482,13 @@
         <v>1.9499999999999886E-3</v>
       </c>
       <c r="I201" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J201" s="1">
         <v>230</v>
       </c>
       <c r="K201" s="22" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
@@ -9521,13 +9519,13 @@
         <v>3.5875000000000056E-3</v>
       </c>
       <c r="I202" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J202" s="1">
         <v>220</v>
       </c>
       <c r="K202" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
@@ -9558,13 +9556,13 @@
         <v>3.2999999999999831E-3</v>
       </c>
       <c r="I203" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J203" s="1">
         <v>230</v>
       </c>
       <c r="K203" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
@@ -9595,7 +9593,7 @@
         <v>8.5999999999999861E-3</v>
       </c>
       <c r="I204" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J204" s="1">
         <v>230</v>
@@ -9632,7 +9630,7 @@
         <v>7.9583333333333329E-3</v>
       </c>
       <c r="I205" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J205" s="1">
         <v>230</v>
@@ -9669,7 +9667,7 @@
         <v>8.4687500000000006E-3</v>
       </c>
       <c r="I206" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J206" s="1">
         <v>220</v>
@@ -9706,7 +9704,7 @@
         <v>9.7999999999999823E-3</v>
       </c>
       <c r="I207" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J207" s="1">
         <v>190</v>
@@ -9743,7 +9741,7 @@
         <v>2.0999999999999942E-3</v>
       </c>
       <c r="I208" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J208" s="1">
         <v>190</v>
@@ -9780,13 +9778,13 @@
         <v>1.9363636363636347E-3</v>
       </c>
       <c r="I209" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J209" s="1">
         <v>230</v>
       </c>
       <c r="K209" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
@@ -9817,7 +9815,7 @@
         <v>5.199999999999998E-3</v>
       </c>
       <c r="I210" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J210" s="1">
         <v>190</v>
@@ -9854,13 +9852,13 @@
         <v>2.6499999999999913E-3</v>
       </c>
       <c r="I211" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J211" s="1">
         <v>170</v>
       </c>
       <c r="K211" s="22" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
@@ -9891,7 +9889,7 @@
         <v>3.9749999999999942E-3</v>
       </c>
       <c r="I212" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J212" s="1">
         <v>220</v>
@@ -9928,16 +9926,16 @@
         <v>2.8799999999999954E-3</v>
       </c>
       <c r="I213" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J213" s="1">
         <v>200</v>
       </c>
       <c r="K213" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="L213" s="24" t="s">
         <v>405</v>
-      </c>
-      <c r="L213" s="24" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
@@ -9968,13 +9966,13 @@
         <v>2.2142857142857142E-3</v>
       </c>
       <c r="I214" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J214" s="1">
         <v>220</v>
       </c>
       <c r="K214" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
@@ -10005,13 +10003,13 @@
         <v>1.9666666666666591E-3</v>
       </c>
       <c r="I215" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J215" s="1">
         <v>220</v>
       </c>
       <c r="K215" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
@@ -10042,13 +10040,13 @@
         <v>2.8599999999999993E-3</v>
       </c>
       <c r="I216" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J216" s="1">
         <v>200</v>
       </c>
       <c r="K216" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
@@ -10079,13 +10077,13 @@
         <v>2.3999999999999772E-3</v>
       </c>
       <c r="I217" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J217" s="1">
         <v>220</v>
       </c>
       <c r="K217" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
@@ -10116,13 +10114,13 @@
         <v>2.1999999999999884E-3</v>
       </c>
       <c r="I218" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J218" s="1">
         <v>190</v>
       </c>
       <c r="K218" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
@@ -10153,13 +10151,13 @@
         <v>3.2999999999999969E-3</v>
       </c>
       <c r="I219" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J219" s="1">
         <v>200</v>
       </c>
       <c r="K219" s="22" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
@@ -10190,13 +10188,13 @@
         <v>2.4333333333333277E-3</v>
       </c>
       <c r="I220" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J220" s="1">
         <v>220</v>
       </c>
       <c r="K220" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="221" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -10243,13 +10241,13 @@
         <v>3.1333333333333257E-3</v>
       </c>
       <c r="I222" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J222" s="1">
         <v>190</v>
       </c>
       <c r="K222" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="223" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -10267,7 +10265,7 @@
       </c>
       <c r="H223" s="13"/>
       <c r="I223" s="14" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J223" s="13"/>
       <c r="K223" s="15"/>
@@ -10301,13 +10299,13 @@
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="I224" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J224" s="1">
         <v>230</v>
       </c>
       <c r="K224" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
@@ -10338,13 +10336,13 @@
         <v>3.0999999999999851E-3</v>
       </c>
       <c r="I225" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J225" s="1">
         <v>220</v>
       </c>
       <c r="K225" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
@@ -10375,7 +10373,7 @@
         <v>2.9599999999999913E-3</v>
       </c>
       <c r="I226" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J226" s="1">
         <v>170</v>
@@ -10412,7 +10410,7 @@
         <v>5.1333333333333257E-3</v>
       </c>
       <c r="I227" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J227" s="1">
         <v>230</v>
@@ -10449,13 +10447,13 @@
         <v>7.7999999999999832E-3</v>
       </c>
       <c r="I228" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J228" s="1">
         <v>190</v>
       </c>
       <c r="K228" s="22" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
@@ -10486,13 +10484,13 @@
         <v>4.9599999999999913E-3</v>
       </c>
       <c r="I229" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J229" s="1">
         <v>220</v>
       </c>
       <c r="K229" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="230" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -10523,7 +10521,7 @@
         <v>4.4333333333333273E-3</v>
       </c>
       <c r="I230" s="19" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J230" s="18">
         <v>220</v>
@@ -10561,13 +10559,13 @@
         <v>1.7799999999999983E-2</v>
       </c>
       <c r="I231" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J231" s="1">
         <v>170</v>
       </c>
       <c r="K231" s="22" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="232" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -10620,13 +10618,13 @@
         <v>2.044444444444442E-3</v>
       </c>
       <c r="I233" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J233" s="1">
         <v>230</v>
       </c>
       <c r="K233" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
@@ -10657,13 +10655,13 @@
         <v>3.4375E-3</v>
       </c>
       <c r="I234" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J234" s="1">
         <v>220</v>
       </c>
       <c r="K234" s="22" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
@@ -10694,13 +10692,13 @@
         <v>3.1333333333333257E-3</v>
       </c>
       <c r="I235" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J235" s="1">
         <v>220</v>
       </c>
       <c r="K235" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
@@ -10731,13 +10729,13 @@
         <v>5.1999999999999885E-3</v>
       </c>
       <c r="I236" s="3" t="s">
-        <v>371</v>
+        <v>62</v>
       </c>
       <c r="J236" s="1">
         <v>220</v>
       </c>
       <c r="K236" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
@@ -10768,13 +10766,13 @@
         <v>3.1624999999999978E-3</v>
       </c>
       <c r="I237" s="3" t="s">
-        <v>371</v>
+        <v>62</v>
       </c>
       <c r="J237" s="1">
         <v>220</v>
       </c>
       <c r="K237" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
@@ -10805,7 +10803,7 @@
         <v>2.8599999999999993E-3</v>
       </c>
       <c r="I238" s="3" t="s">
-        <v>371</v>
+        <v>62</v>
       </c>
       <c r="J238" s="1">
         <v>180</v>
@@ -10842,7 +10840,7 @@
         <v>4.7749999999999963E-3</v>
       </c>
       <c r="I239" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J239" s="1">
         <v>220</v>
@@ -10879,7 +10877,7 @@
         <v>2.4333333333333277E-3</v>
       </c>
       <c r="I240" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J240" s="1">
         <v>170</v>
@@ -10916,13 +10914,13 @@
         <v>4.3999999999999768E-3</v>
       </c>
       <c r="I241" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J241" s="1">
         <v>170</v>
       </c>
       <c r="K241" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
@@ -10953,7 +10951,7 @@
         <v>4.7199999999999985E-3</v>
       </c>
       <c r="I242" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J242" s="1">
         <v>200</v>
@@ -10990,13 +10988,13 @@
         <v>2.5999999999999942E-3</v>
       </c>
       <c r="I243" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J243" s="1">
         <v>190</v>
       </c>
       <c r="K243" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
@@ -11027,13 +11025,13 @@
         <v>7.7999999999999832E-3</v>
       </c>
       <c r="I244" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J244" s="1">
         <v>210</v>
       </c>
       <c r="K244" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
@@ -11064,13 +11062,13 @@
         <v>4.2999999999999974E-3</v>
       </c>
       <c r="I245" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J245" s="1">
         <v>200</v>
       </c>
       <c r="K245" s="22" t="s">
-        <v>405</v>
+        <v>63</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
@@ -11101,13 +11099,13 @@
         <v>3.1333333333333257E-3</v>
       </c>
       <c r="I246" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J246" s="1">
         <v>200</v>
       </c>
       <c r="K246" s="22" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
@@ -11138,13 +11136,13 @@
         <v>2.1450000000000011E-3</v>
       </c>
       <c r="I247" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J247" s="1">
         <v>220</v>
       </c>
       <c r="K247" s="22" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
@@ -11175,16 +11173,16 @@
         <v>4.2999999999999974E-3</v>
       </c>
       <c r="I248" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J248" s="1">
         <v>140</v>
       </c>
       <c r="K248" s="22" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="L248" s="24" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
@@ -11215,13 +11213,13 @@
         <v>3.1333333333333257E-3</v>
       </c>
       <c r="I249" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J249" s="1">
         <v>220</v>
       </c>
       <c r="K249" s="22" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
@@ -11252,13 +11250,13 @@
         <v>3.8799999999999954E-3</v>
       </c>
       <c r="I250" s="3" t="s">
-        <v>371</v>
+        <v>62</v>
       </c>
       <c r="J250" s="1">
         <v>170</v>
       </c>
       <c r="K250" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
@@ -11289,7 +11287,7 @@
         <v>5.2999999999999974E-3</v>
       </c>
       <c r="I251" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J251" s="1">
         <v>200</v>
@@ -11326,13 +11324,13 @@
         <v>2.1450000000000011E-3</v>
       </c>
       <c r="I252" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J252" s="1">
         <v>220</v>
       </c>
       <c r="K252" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
@@ -11369,7 +11367,7 @@
         <v>220</v>
       </c>
       <c r="K253" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
@@ -11400,13 +11398,13 @@
         <v>2.875E-3</v>
       </c>
       <c r="I254" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J254" s="1">
         <v>170</v>
       </c>
       <c r="K254" s="22" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
@@ -11437,13 +11435,13 @@
         <v>3.1799999999999953E-3</v>
       </c>
       <c r="I255" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J255" s="1">
         <v>140</v>
       </c>
       <c r="K255" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
@@ -11474,13 +11472,13 @@
         <v>2.7250000000000035E-3</v>
       </c>
       <c r="I256" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="J256" s="1">
         <v>220</v>
       </c>
       <c r="K256" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
@@ -11511,13 +11509,13 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="I257" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J257" s="1">
         <v>140</v>
       </c>
       <c r="K257" s="22" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
@@ -11548,13 +11546,13 @@
         <v>2.875E-3</v>
       </c>
       <c r="I258" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J258" s="1">
         <v>190</v>
       </c>
       <c r="K258" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
@@ -11585,13 +11583,13 @@
         <v>2.6250000000000002E-3</v>
       </c>
       <c r="I259" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J259" s="1">
         <v>220</v>
       </c>
       <c r="K259" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
@@ -11622,13 +11620,13 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="I260" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J260" s="1">
         <v>220</v>
       </c>
       <c r="K260" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
@@ -11659,13 +11657,13 @@
         <v>5.8999999999999773E-3</v>
       </c>
       <c r="I261" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J261" s="1">
         <v>140</v>
       </c>
       <c r="K261" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
@@ -11696,16 +11694,16 @@
         <v>3.1999999999999884E-3</v>
       </c>
       <c r="I262" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J262" s="1">
         <v>200</v>
       </c>
       <c r="K262" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L262" s="24" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
@@ -11736,13 +11734,13 @@
         <v>8.5000000000000006E-3</v>
       </c>
       <c r="I263" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J263" s="1">
         <v>230</v>
       </c>
       <c r="K263" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
@@ -11773,13 +11771,13 @@
         <v>3.1333333333333257E-3</v>
       </c>
       <c r="I264" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J264" s="1">
         <v>200</v>
       </c>
       <c r="K264" s="33" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
@@ -11810,7 +11808,7 @@
         <v>4.1250000000000097E-3</v>
       </c>
       <c r="I265" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J265" s="1">
         <v>170</v>
@@ -11847,7 +11845,7 @@
         <v>3.1333333333333257E-3</v>
       </c>
       <c r="I266" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J266" s="1">
         <v>200</v>
@@ -11890,7 +11888,7 @@
         <v>210</v>
       </c>
       <c r="K267" s="22" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="268" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -11943,7 +11941,7 @@
         <v>3.7999999999999831E-3</v>
       </c>
       <c r="I269" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J269" s="1">
         <v>180</v>
@@ -11986,7 +11984,7 @@
         <v>190</v>
       </c>
       <c r="K270" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
@@ -12023,7 +12021,7 @@
         <v>180</v>
       </c>
       <c r="K271" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="272" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -12076,16 +12074,16 @@
         <v>4.1999999999999885E-3</v>
       </c>
       <c r="I273" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J273" s="1">
         <v>190</v>
       </c>
       <c r="K273" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L273" s="24" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
@@ -12116,7 +12114,7 @@
         <v>6.5749999999999888E-3</v>
       </c>
       <c r="I274" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J274" s="1">
         <v>200</v>
@@ -12153,7 +12151,7 @@
         <v>3.15E-3</v>
       </c>
       <c r="I275" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J275" s="1">
         <v>230</v>
@@ -12190,13 +12188,13 @@
         <v>2.4666666666666591E-3</v>
       </c>
       <c r="I276" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J276" s="1">
         <v>200</v>
       </c>
       <c r="K276" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="277" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -12249,13 +12247,13 @@
         <v>2.6399999999999978E-3</v>
       </c>
       <c r="I278" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J278" s="1">
         <v>190</v>
       </c>
       <c r="K278" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.25">
@@ -12286,7 +12284,7 @@
         <v>2.8999999999999772E-3</v>
       </c>
       <c r="I279" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J279" s="1">
         <v>230</v>
@@ -12323,13 +12321,13 @@
         <v>1.9666666666666591E-3</v>
       </c>
       <c r="I280" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J280" s="1">
         <v>200</v>
       </c>
       <c r="K280" s="22" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.25">
@@ -12360,7 +12358,7 @@
         <v>4.2999999999999974E-3</v>
       </c>
       <c r="I281" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J281" s="1">
         <v>190</v>
@@ -12397,13 +12395,13 @@
         <v>5.8999999999999773E-3</v>
       </c>
       <c r="I282" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J282" s="1">
         <v>220</v>
       </c>
       <c r="K282" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.25">
@@ -12434,7 +12432,7 @@
         <v>4.6666666666666671E-3</v>
       </c>
       <c r="I283" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J283" s="1">
         <v>200</v>
@@ -12493,7 +12491,7 @@
         <v>4.7749999999999963E-3</v>
       </c>
       <c r="I285" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J285" s="1">
         <v>220</v>
@@ -12530,7 +12528,7 @@
         <v>3.2999999999999969E-3</v>
       </c>
       <c r="I286" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J286" s="1">
         <v>170</v>
@@ -12567,7 +12565,7 @@
         <v>2.6499999999999913E-3</v>
       </c>
       <c r="I287" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J287" s="1">
         <v>230</v>
@@ -12604,13 +12602,13 @@
         <v>3.099999999999999E-3</v>
       </c>
       <c r="I288" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J288" s="1">
         <v>200</v>
       </c>
       <c r="K288" s="22" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.25">
@@ -12641,7 +12639,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="I289" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J289" s="1">
         <v>200</v>
@@ -12678,13 +12676,13 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="I290" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J290" s="1">
         <v>230</v>
       </c>
       <c r="K290" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.25">
@@ -12715,7 +12713,7 @@
         <v>4.1333333333333257E-3</v>
       </c>
       <c r="I291" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J291" s="1">
         <v>200</v>
@@ -12752,13 +12750,13 @@
         <v>3.1333333333333257E-3</v>
       </c>
       <c r="I292" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J292" s="1">
         <v>200</v>
       </c>
       <c r="K292" s="22" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.25">
@@ -12789,7 +12787,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="I293" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J293" s="1">
         <v>220</v>
@@ -12826,13 +12824,13 @@
         <v>2.8E-3</v>
       </c>
       <c r="I294" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J294" s="1">
         <v>190</v>
       </c>
       <c r="K294" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.25">
@@ -12863,13 +12861,13 @@
         <v>4.6499999999999918E-3</v>
       </c>
       <c r="I295" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J295" s="1">
         <v>220</v>
       </c>
       <c r="K295" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.25">
@@ -12900,13 +12898,13 @@
         <v>2.9599999999999913E-3</v>
       </c>
       <c r="I296" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J296" s="1">
         <v>200</v>
       </c>
       <c r="K296" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.25">
@@ -12937,13 +12935,13 @@
         <v>2.9399999999999977E-3</v>
       </c>
       <c r="I297" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J297" s="1">
         <v>220</v>
       </c>
       <c r="K297" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.25">
@@ -12974,16 +12972,16 @@
         <v>3.2599999999999968E-3</v>
       </c>
       <c r="I298" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J298" s="1">
         <v>210</v>
       </c>
       <c r="K298" s="22" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="L298" s="24" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.25">
@@ -13014,7 +13012,7 @@
         <v>4.7749999999999963E-3</v>
       </c>
       <c r="I299" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J299" s="1">
         <v>220</v>
@@ -13051,13 +13049,13 @@
         <v>2.9399999999999977E-3</v>
       </c>
       <c r="I300" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J300" s="1">
         <v>170</v>
       </c>
       <c r="K300" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.25">
@@ -13088,13 +13086,13 @@
         <v>2.924999999999997E-3</v>
       </c>
       <c r="I301" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J301" s="1">
         <v>200</v>
       </c>
       <c r="K301" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.25">
@@ -13125,7 +13123,7 @@
         <v>3.1333333333333257E-3</v>
       </c>
       <c r="I302" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J302" s="1">
         <v>200</v>
@@ -13162,16 +13160,16 @@
         <v>4.2999999999999974E-3</v>
       </c>
       <c r="I303" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J303" s="1">
         <v>190</v>
       </c>
       <c r="K303" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L303" s="24" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.25">
@@ -13202,7 +13200,7 @@
         <v>3.2499999999999999E-3</v>
       </c>
       <c r="I304" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J304" s="1">
         <v>210</v>
@@ -13245,7 +13243,7 @@
         <v>220</v>
       </c>
       <c r="K305" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.25">
@@ -13276,13 +13274,13 @@
         <v>3.1750000000000116E-3</v>
       </c>
       <c r="I306" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J306" s="1">
         <v>200</v>
       </c>
       <c r="K306" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.25">
@@ -13313,13 +13311,13 @@
         <v>2.9999999999999858E-3</v>
       </c>
       <c r="I307" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J307" s="1">
         <v>140</v>
       </c>
       <c r="K307" s="22" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.25">
@@ -13350,13 +13348,13 @@
         <v>4.7999999999999545E-3</v>
       </c>
       <c r="I308" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J308" s="1">
         <v>170</v>
       </c>
       <c r="K308" s="22" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.25">
@@ -13387,13 +13385,13 @@
         <v>2.3874999999999981E-3</v>
       </c>
       <c r="I309" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="J309" s="1">
         <v>220</v>
       </c>
       <c r="K309" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.25">
@@ -13424,13 +13422,13 @@
         <v>3.1799999999999953E-3</v>
       </c>
       <c r="I310" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J310" s="1">
         <v>190</v>
       </c>
       <c r="K310" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.25">
@@ -13461,16 +13459,16 @@
         <v>3.1333333333333257E-3</v>
       </c>
       <c r="I311" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J311" s="1">
         <v>200</v>
       </c>
       <c r="K311" s="22" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="L311" s="24" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.25">
@@ -13501,13 +13499,13 @@
         <v>5.0999999999999943E-3</v>
       </c>
       <c r="I312" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J312" s="1">
         <v>190</v>
       </c>
       <c r="K312" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.25">
@@ -13538,13 +13536,13 @@
         <v>3.4714285714285689E-3</v>
       </c>
       <c r="I313" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J313" s="1">
         <v>220</v>
       </c>
       <c r="K313" s="22" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.25">
@@ -13575,7 +13573,7 @@
         <v>7.7999999999999832E-3</v>
       </c>
       <c r="I314" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J314" s="1">
         <v>180</v>
@@ -13612,13 +13610,13 @@
         <v>4.9375E-3</v>
       </c>
       <c r="I315" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J315" s="1">
         <v>200</v>
       </c>
       <c r="K315" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.25">
@@ -13649,13 +13647,13 @@
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="I316" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J316" s="1">
         <v>200</v>
       </c>
       <c r="K316" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.25">
@@ -13686,13 +13684,13 @@
         <v>2.9294117647058796E-3</v>
       </c>
       <c r="I317" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J317" s="1">
         <v>190</v>
       </c>
       <c r="K317" s="22" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.25">
@@ -13729,7 +13727,7 @@
         <v>190</v>
       </c>
       <c r="K318" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.25">
@@ -13760,13 +13758,13 @@
         <v>2.875E-3</v>
       </c>
       <c r="I319" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J319" s="1">
         <v>220</v>
       </c>
       <c r="K319" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.25">
@@ -13797,13 +13795,13 @@
         <v>1.0500000000000001E-2</v>
       </c>
       <c r="I320" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J320" s="1">
         <v>220</v>
       </c>
       <c r="K320" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.25">
@@ -13834,13 +13832,13 @@
         <v>3.2999999999999969E-3</v>
       </c>
       <c r="I321" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J321" s="1">
         <v>190</v>
       </c>
       <c r="K321" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.25">
@@ -13871,13 +13869,13 @@
         <v>3.2999999999999969E-3</v>
       </c>
       <c r="I322" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J322" s="1">
         <v>190</v>
       </c>
       <c r="K322" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.25">
@@ -13908,13 +13906,13 @@
         <v>5.8999999999999773E-3</v>
       </c>
       <c r="I323" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J323" s="1">
         <v>220</v>
       </c>
       <c r="K323" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.25">
@@ -13951,7 +13949,7 @@
         <v>220</v>
       </c>
       <c r="K324" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.25">
@@ -13982,13 +13980,13 @@
         <v>2.8999999999999772E-3</v>
       </c>
       <c r="I325" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J325" s="1">
         <v>220</v>
       </c>
       <c r="K325" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.25">
@@ -14019,13 +14017,13 @@
         <v>4.6666666666666671E-3</v>
       </c>
       <c r="I326" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J326" s="1">
         <v>190</v>
       </c>
       <c r="K326" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.25">
@@ -14056,13 +14054,13 @@
         <v>2.5999999999999851E-3</v>
       </c>
       <c r="I327" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J327" s="1">
         <v>230</v>
       </c>
       <c r="K327" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.25">
@@ -14093,13 +14091,13 @@
         <v>2.875E-3</v>
       </c>
       <c r="I328" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J328" s="1">
         <v>220</v>
       </c>
       <c r="K328" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.25">
@@ -14130,13 +14128,13 @@
         <v>2.5499999999999971E-3</v>
       </c>
       <c r="I329" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J329" s="1">
         <v>230</v>
       </c>
       <c r="K329" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.25">
@@ -14167,13 +14165,13 @@
         <v>1.0199999999999989E-2</v>
       </c>
       <c r="I330" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J330" s="1">
         <v>220</v>
       </c>
       <c r="K330" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.25">
@@ -14204,7 +14202,7 @@
         <v>2.8625000000000022E-3</v>
       </c>
       <c r="I331" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J331" s="1">
         <v>190</v>
@@ -14285,13 +14283,13 @@
         <v>2.5499999999999971E-3</v>
       </c>
       <c r="I334" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J334" s="1">
         <v>180</v>
       </c>
       <c r="K334" s="22" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.25">
@@ -14322,13 +14320,13 @@
         <v>3.0666666666666629E-3</v>
       </c>
       <c r="I335" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J335" s="1">
         <v>230</v>
       </c>
       <c r="K335" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.25">
@@ -14359,13 +14357,13 @@
         <v>2.875E-3</v>
       </c>
       <c r="I336" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J336" s="1">
         <v>230</v>
       </c>
       <c r="K336" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="337" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -14440,13 +14438,13 @@
         <v>2.3874999999999981E-3</v>
       </c>
       <c r="I339" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J339" s="1">
         <v>230</v>
       </c>
       <c r="K339" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.25">
@@ -14477,13 +14475,13 @@
         <v>2.46875E-3</v>
       </c>
       <c r="I340" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J340" s="1">
         <v>200</v>
       </c>
       <c r="K340" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.25">
@@ -14514,13 +14512,13 @@
         <v>5.8999999999999773E-3</v>
       </c>
       <c r="I341" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J341" s="1">
         <v>230</v>
       </c>
       <c r="K341" s="22" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.25">
@@ -14551,13 +14549,13 @@
         <v>3.1999999999999884E-3</v>
       </c>
       <c r="I342" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J342" s="1">
         <v>220</v>
       </c>
       <c r="K342" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.25">
@@ -14588,13 +14586,13 @@
         <v>3.0999999999999943E-3</v>
       </c>
       <c r="I343" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J343" s="1">
         <v>230</v>
       </c>
       <c r="K343" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.25">
@@ -14631,7 +14629,7 @@
         <v>220</v>
       </c>
       <c r="K344" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.25">
@@ -14662,13 +14660,13 @@
         <v>2.3999999999999772E-3</v>
       </c>
       <c r="I345" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J345" s="1">
         <v>220</v>
       </c>
       <c r="K345" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.25">
@@ -14699,13 +14697,13 @@
         <v>2.5142857142857133E-3</v>
       </c>
       <c r="I346" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J346" s="1">
         <v>200</v>
       </c>
       <c r="K346" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.25">
@@ -14736,13 +14734,13 @@
         <v>2.6499999999999913E-3</v>
       </c>
       <c r="I347" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J347" s="1">
         <v>200</v>
       </c>
       <c r="K347" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.25">
@@ -14773,13 +14771,13 @@
         <v>3.5812499999999972E-3</v>
       </c>
       <c r="I348" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J348" s="1">
         <v>170</v>
       </c>
       <c r="K348" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.25">
@@ -14810,13 +14808,13 @@
         <v>3.6499999999999914E-3</v>
       </c>
       <c r="I349" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J349" s="1">
         <v>210</v>
       </c>
       <c r="K349" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.25">
@@ -14847,13 +14845,13 @@
         <v>2.5499999999999971E-3</v>
       </c>
       <c r="I350" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J350" s="1">
         <v>180</v>
       </c>
       <c r="K350" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="351" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -14906,13 +14904,13 @@
         <v>2.3181818181818182E-3</v>
       </c>
       <c r="I352" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J352" s="1">
         <v>210</v>
       </c>
       <c r="K352" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.25">
@@ -14943,13 +14941,13 @@
         <v>3.4499999999999887E-3</v>
       </c>
       <c r="I353" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J353" s="1">
         <v>200</v>
       </c>
       <c r="K353" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.25">
@@ -14980,13 +14978,13 @@
         <v>2.1624999999999943E-3</v>
       </c>
       <c r="I354" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J354" s="1">
         <v>190</v>
       </c>
       <c r="K354" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.25">
@@ -15017,7 +15015,7 @@
         <v>4.8250000000000072E-3</v>
       </c>
       <c r="I355" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J355" s="1">
         <v>200</v>
@@ -15028,7 +15026,7 @@
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356" s="28" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B356" s="1">
         <v>64</v>
@@ -15054,18 +15052,18 @@
         <v>2.5142857142857133E-3</v>
       </c>
       <c r="I356" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J356" s="1">
         <v>230</v>
       </c>
       <c r="K356" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357" s="28" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B357" s="1">
         <v>90</v>
@@ -15097,12 +15095,12 @@
         <v>190</v>
       </c>
       <c r="K357" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358" s="28" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B358" s="1">
         <v>85</v>
@@ -15128,18 +15126,18 @@
         <v>2.9375E-3</v>
       </c>
       <c r="I358" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J358" s="1">
         <v>230</v>
       </c>
       <c r="K358" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359" s="28" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B359" s="1">
         <v>64</v>
@@ -15165,18 +15163,18 @@
         <v>8.1999999999999885E-3</v>
       </c>
       <c r="I359" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J359" s="1">
         <v>220</v>
       </c>
       <c r="K359" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360" s="28" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B360" s="1">
         <v>85</v>
@@ -15202,18 +15200,18 @@
         <v>2.9375E-3</v>
       </c>
       <c r="I360" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J360" s="1">
         <v>220</v>
       </c>
       <c r="K360" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361" s="28" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B361" s="1">
         <v>64</v>
@@ -15239,18 +15237,18 @@
         <v>8.1999999999999885E-3</v>
       </c>
       <c r="I361" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J361" s="1">
         <v>220</v>
       </c>
       <c r="K361" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362" s="28" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B362" s="1">
         <v>76</v>
@@ -15276,18 +15274,18 @@
         <v>1.1299999999999984E-2</v>
       </c>
       <c r="I362" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J362" s="1">
         <v>220</v>
       </c>
       <c r="K362" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" s="28" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B363" s="1">
         <v>64</v>
@@ -15313,18 +15311,18 @@
         <v>2.5999999999999942E-3</v>
       </c>
       <c r="I363" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J363" s="1">
         <v>170</v>
       </c>
       <c r="K363" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" s="28" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B364" s="1">
         <v>99</v>
@@ -15350,7 +15348,7 @@
         <v>3.7749999999999962E-3</v>
       </c>
       <c r="I364" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J364" s="1">
         <v>200</v>
@@ -15361,7 +15359,7 @@
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" s="28" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B365" s="1">
         <v>76</v>
@@ -15387,18 +15385,18 @@
         <v>2.3249999999999959E-3</v>
       </c>
       <c r="I365" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J365" s="1">
         <v>200</v>
       </c>
       <c r="K365" s="22" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="366" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A366" s="29" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B366" s="18">
         <v>81</v>
@@ -15424,19 +15422,19 @@
         <v>2.1468750000000012E-3</v>
       </c>
       <c r="I366" s="19" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J366" s="18">
         <v>220</v>
       </c>
       <c r="K366" s="34" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L366" s="26"/>
     </row>
     <row r="367" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A367" s="31" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B367" s="13"/>
       <c r="C367" s="13"/>
@@ -15458,7 +15456,7 @@
     </row>
     <row r="368" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A368" s="31" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B368" s="13"/>
       <c r="C368" s="13"/>
@@ -15480,7 +15478,7 @@
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369" s="28" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B369" s="1">
         <v>68</v>
@@ -15506,18 +15504,18 @@
         <v>7.8999999999999765E-3</v>
       </c>
       <c r="I369" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J369" s="1">
         <v>200</v>
       </c>
       <c r="K369" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370" s="28" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B370" s="1">
         <v>68</v>
@@ -15543,18 +15541,18 @@
         <v>7.8999999999999765E-3</v>
       </c>
       <c r="I370" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J370" s="1">
         <v>170</v>
       </c>
       <c r="K370" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371" s="28" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B371" s="1">
         <v>96</v>
@@ -15580,18 +15578,18 @@
         <v>1.0399999999999977E-2</v>
       </c>
       <c r="I371" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J371" s="1">
         <v>230</v>
       </c>
       <c r="K371" s="23" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372" s="28" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B372" s="1">
         <v>72</v>
@@ -15617,18 +15615,18 @@
         <v>2.5846153846153844E-3</v>
       </c>
       <c r="I372" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J372" s="1">
         <v>190</v>
       </c>
       <c r="K372" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373" s="28" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B373" s="1">
         <v>68</v>
@@ -15654,18 +15652,18 @@
         <v>3.1799999999999953E-3</v>
       </c>
       <c r="I373" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J373" s="1">
         <v>220</v>
       </c>
       <c r="K373" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374" s="28" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B374" s="1">
         <v>72</v>
@@ -15691,18 +15689,18 @@
         <v>3.1499999999999987E-3</v>
       </c>
       <c r="I374" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J374" s="1">
         <v>230</v>
       </c>
       <c r="K374" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="375" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A375" s="31" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B375" s="13"/>
       <c r="C375" s="13"/>
@@ -15724,7 +15722,7 @@
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A376" s="28" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B376" s="1">
         <v>60</v>
@@ -15750,18 +15748,18 @@
         <v>3.1666666666666666E-3</v>
       </c>
       <c r="I376" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J376" s="1">
         <v>230</v>
       </c>
       <c r="K376" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377" s="28" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B377" s="1">
         <v>81</v>
@@ -15787,18 +15785,18 @@
         <v>2.2937500000000028E-3</v>
       </c>
       <c r="I377" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J377" s="1">
         <v>190</v>
       </c>
       <c r="K377" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A378" s="28" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B378" s="1">
         <v>80</v>
@@ -15824,18 +15822,18 @@
         <v>2.6666666666666666E-3</v>
       </c>
       <c r="I378" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J378" s="1">
         <v>200</v>
       </c>
       <c r="K378" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379" s="28" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B379" s="1">
         <v>85</v>
@@ -15861,18 +15859,18 @@
         <v>2.4895833333333337E-3</v>
       </c>
       <c r="I379" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J379" s="1">
         <v>235</v>
       </c>
       <c r="K379" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A380" s="28" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B380" s="1">
         <v>76</v>
@@ -15898,13 +15896,13 @@
         <v>1.9363636363636347E-3</v>
       </c>
       <c r="I380" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J380" s="1">
         <v>220</v>
       </c>
       <c r="K380" s="22" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.25">
@@ -16114,7 +16112,7 @@
     <hyperlink ref="K248" r:id="rId121" xr:uid="{764A6BAD-5972-468B-B988-B15D4D879008}"/>
     <hyperlink ref="K247" r:id="rId122" xr:uid="{15BFA034-880B-48DB-9D5B-460B1A19B567}"/>
     <hyperlink ref="K246" r:id="rId123" xr:uid="{2E66CA36-978D-4698-ADB8-039588E73288}"/>
-    <hyperlink ref="K245" r:id="rId124" xr:uid="{1D57EC0A-4A0F-4428-B5E3-BD8437E975C3}"/>
+    <hyperlink ref="K245" r:id="rId124" display="прямоугольник" xr:uid="{1D57EC0A-4A0F-4428-B5E3-BD8437E975C3}"/>
     <hyperlink ref="K244" r:id="rId125" xr:uid="{02968B34-F1A9-4C47-91EC-C417AEFA6E2C}"/>
     <hyperlink ref="K243" r:id="rId126" xr:uid="{43255979-AF60-43C0-B134-722127876C4C}"/>
     <hyperlink ref="K242" r:id="rId127" xr:uid="{168502C7-A87D-4721-A359-7F21CFF6D5BF}"/>
@@ -16356,24 +16354,1586 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DE112E-8AAE-467B-8A25-E95ADDCC1301}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" customWidth="1"/>
+    <col min="11" max="11" width="40.85546875" customWidth="1"/>
+    <col min="12" max="12" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="11">
+        <v>96</v>
+      </c>
+      <c r="C2" s="11">
+        <v>58</v>
+      </c>
+      <c r="D2" s="11">
+        <v>40</v>
+      </c>
+      <c r="E2" s="11">
+        <v>7</v>
+      </c>
+      <c r="F2" s="11">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1">
+        <f>(J2-(C2*E2))/1000</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="H2" s="1">
+        <f>(((B2*3.175)-(D2*F2))/F2)/1000</f>
+        <v>3.5428571428571367E-3</v>
+      </c>
+      <c r="I2" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="J2" s="11">
+        <v>430</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="L2" s="46"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="11">
+        <v>99</v>
+      </c>
+      <c r="C3" s="11">
+        <v>30</v>
+      </c>
+      <c r="D3" s="11">
+        <v>20</v>
+      </c>
+      <c r="E3" s="11">
+        <v>13</v>
+      </c>
+      <c r="F3" s="11">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G16" si="0">(J3-(C3*E3))/1000</f>
+        <v>0.04</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H16" si="1">(((B3*3.175)-(D3*F3))/F3)/1000</f>
+        <v>2.4517857142857132E-3</v>
+      </c>
+      <c r="I3" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="J3" s="11">
+        <v>430</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="L3" s="46"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="11">
+        <v>96</v>
+      </c>
+      <c r="C4" s="11">
+        <v>43</v>
+      </c>
+      <c r="D4" s="11">
+        <v>25</v>
+      </c>
+      <c r="E4" s="11">
+        <v>9</v>
+      </c>
+      <c r="F4" s="11">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="1"/>
+        <v>2.7090909090909049E-3</v>
+      </c>
+      <c r="I4" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="J4" s="11">
+        <v>430</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="L4" s="46"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>413</v>
+      </c>
+      <c r="B5" s="11">
+        <v>105</v>
+      </c>
+      <c r="C5" s="11">
+        <v>43</v>
+      </c>
+      <c r="D5" s="11">
+        <v>25</v>
+      </c>
+      <c r="E5" s="11">
+        <v>9</v>
+      </c>
+      <c r="F5" s="11">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>2.7812499999999999E-3</v>
+      </c>
+      <c r="I5" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="J5" s="11">
+        <v>430</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="L5" s="46"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="11">
+        <v>96</v>
+      </c>
+      <c r="C6" s="11">
+        <v>58</v>
+      </c>
+      <c r="D6" s="11">
+        <v>30</v>
+      </c>
+      <c r="E6" s="11">
+        <v>7</v>
+      </c>
+      <c r="F6" s="11">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="1"/>
+        <v>3.8666666666666619E-3</v>
+      </c>
+      <c r="I6" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="J6" s="11">
+        <v>430</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="L6" s="46"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>414</v>
+      </c>
+      <c r="B7" s="11">
+        <v>105</v>
+      </c>
+      <c r="C7" s="11">
+        <v>58</v>
+      </c>
+      <c r="D7" s="11">
+        <v>30</v>
+      </c>
+      <c r="E7" s="11">
+        <v>7</v>
+      </c>
+      <c r="F7" s="11">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3374999999999998E-3</v>
+      </c>
+      <c r="I7" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="J7" s="11">
+        <v>430</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="L7" s="46"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="11">
+        <v>99</v>
+      </c>
+      <c r="C8" s="11">
+        <v>58</v>
+      </c>
+      <c r="D8" s="11">
+        <v>60</v>
+      </c>
+      <c r="E8" s="11">
+        <v>7</v>
+      </c>
+      <c r="F8" s="11">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="1"/>
+        <v>2.8649999999999978E-3</v>
+      </c>
+      <c r="I8" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="J8" s="11">
+        <v>430</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="L8" s="46"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="11">
+        <v>96</v>
+      </c>
+      <c r="C9" s="11">
+        <v>98</v>
+      </c>
+      <c r="D9" s="11">
+        <v>98</v>
+      </c>
+      <c r="E9" s="11">
+        <v>4</v>
+      </c>
+      <c r="F9" s="11">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>3.5999999999999852E-3</v>
+      </c>
+      <c r="I9" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="J9" s="11">
+        <v>430</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="L9" s="46"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="11">
+        <v>99</v>
+      </c>
+      <c r="C10" s="11">
+        <v>65</v>
+      </c>
+      <c r="D10" s="11">
+        <v>75</v>
+      </c>
+      <c r="E10" s="11">
+        <v>6</v>
+      </c>
+      <c r="F10" s="11">
+        <v>4</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>3.5812499999999972E-3</v>
+      </c>
+      <c r="I10" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="J10" s="11">
+        <v>430</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="L10" s="46"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="11">
+        <v>96</v>
+      </c>
+      <c r="C11" s="11">
+        <v>98</v>
+      </c>
+      <c r="D11" s="11">
+        <v>58</v>
+      </c>
+      <c r="E11" s="11">
+        <v>4</v>
+      </c>
+      <c r="F11" s="11">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="1"/>
+        <v>2.9599999999999913E-3</v>
+      </c>
+      <c r="I11" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="J11" s="11">
+        <v>430</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="L11" s="46"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="11">
+        <v>98</v>
+      </c>
+      <c r="C12" s="11">
+        <v>105</v>
+      </c>
+      <c r="D12" s="11">
+        <v>145</v>
+      </c>
+      <c r="E12" s="11">
+        <v>4</v>
+      </c>
+      <c r="F12" s="11">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0574999999999989E-2</v>
+      </c>
+      <c r="I12" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="J12" s="11">
+        <v>430</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="L12" s="46"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="11">
+        <v>96</v>
+      </c>
+      <c r="C13" s="11">
+        <v>101</v>
+      </c>
+      <c r="D13" s="11">
+        <v>74</v>
+      </c>
+      <c r="E13" s="11">
+        <v>4</v>
+      </c>
+      <c r="F13" s="11">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="1"/>
+        <v>2.1999999999999884E-3</v>
+      </c>
+      <c r="I13" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="J13" s="11">
+        <v>430</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="L13" s="46"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="11">
+        <v>99</v>
+      </c>
+      <c r="C14" s="11">
+        <v>58</v>
+      </c>
+      <c r="D14" s="11">
+        <v>60</v>
+      </c>
+      <c r="E14" s="11">
+        <v>7</v>
+      </c>
+      <c r="F14" s="11">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="1"/>
+        <v>2.8649999999999978E-3</v>
+      </c>
+      <c r="I14" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="J14" s="11">
+        <v>430</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="L14" s="46"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="11">
+        <v>105</v>
+      </c>
+      <c r="C15" s="11">
+        <v>80</v>
+      </c>
+      <c r="D15" s="11">
+        <v>108</v>
+      </c>
+      <c r="E15" s="11">
+        <v>5</v>
+      </c>
+      <c r="F15" s="11">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="1"/>
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="I15" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="J15" s="11">
+        <v>430</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="L15" s="46"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="11">
+        <v>96</v>
+      </c>
+      <c r="C16" s="11">
+        <v>58</v>
+      </c>
+      <c r="D16" s="11">
+        <v>74.2</v>
+      </c>
+      <c r="E16" s="11">
+        <v>7</v>
+      </c>
+      <c r="F16" s="11">
+        <v>4</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9999999999999857E-3</v>
+      </c>
+      <c r="I16" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="J16" s="11">
+        <v>430</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="L16" s="46"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="11">
+        <v>96</v>
+      </c>
+      <c r="C17" s="11">
+        <v>90</v>
+      </c>
+      <c r="D17" s="11">
+        <v>28</v>
+      </c>
+      <c r="E17" s="11">
+        <v>4</v>
+      </c>
+      <c r="F17" s="11">
+        <v>10</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" ref="G17:G27" si="2">(J17-(C17*E17))/1000</f>
+        <v>0.02</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" ref="H17:H27" si="3">(((B17*3.175)-(D17*F17))/F17)/1000</f>
+        <v>2.4799999999999957E-3</v>
+      </c>
+      <c r="I17" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="J17" s="11">
+        <v>380</v>
+      </c>
+      <c r="K17" s="23" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="11">
+        <v>96</v>
+      </c>
+      <c r="C18" s="11">
+        <v>40</v>
+      </c>
+      <c r="D18" s="11">
+        <v>58</v>
+      </c>
+      <c r="E18" s="11">
+        <v>10</v>
+      </c>
+      <c r="F18" s="11">
+        <v>5</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="2"/>
+        <v>0.03</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="3"/>
+        <v>2.9599999999999913E-3</v>
+      </c>
+      <c r="I18" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="J18" s="11">
+        <v>430</v>
+      </c>
+      <c r="K18" s="23" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="11">
+        <v>97</v>
+      </c>
+      <c r="C19" s="11">
+        <v>58</v>
+      </c>
+      <c r="D19" s="11">
+        <v>59</v>
+      </c>
+      <c r="E19" s="11">
+        <v>7</v>
+      </c>
+      <c r="F19" s="11">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="2"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="3"/>
+        <v>2.5949999999999931E-3</v>
+      </c>
+      <c r="I19" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="J19" s="11">
+        <v>430</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="11">
+        <v>105</v>
+      </c>
+      <c r="C20" s="11">
+        <v>70</v>
+      </c>
+      <c r="D20" s="11">
+        <v>30</v>
+      </c>
+      <c r="E20" s="11">
+        <v>5</v>
+      </c>
+      <c r="F20" s="11">
+        <v>10</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="2"/>
+        <v>0.03</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3374999999999998E-3</v>
+      </c>
+      <c r="I20" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="J20" s="11">
+        <v>380</v>
+      </c>
+      <c r="K20" s="23" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="11">
+        <v>105</v>
+      </c>
+      <c r="C21" s="11">
+        <v>80</v>
+      </c>
+      <c r="D21" s="11">
+        <v>25</v>
+      </c>
+      <c r="E21" s="11">
+        <v>5</v>
+      </c>
+      <c r="F21" s="11">
+        <v>12</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="2"/>
+        <v>0.03</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7812499999999999E-3</v>
+      </c>
+      <c r="I21" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="J21" s="11">
+        <v>430</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="11">
+        <v>99</v>
+      </c>
+      <c r="C22" s="11">
+        <v>70</v>
+      </c>
+      <c r="D22" s="11">
+        <v>50</v>
+      </c>
+      <c r="E22" s="11">
+        <v>5</v>
+      </c>
+      <c r="F22" s="11">
+        <v>6</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="2"/>
+        <v>0.03</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="3"/>
+        <v>2.3874999999999981E-3</v>
+      </c>
+      <c r="I22" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="J22" s="11">
+        <v>380</v>
+      </c>
+      <c r="K22" s="23" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="11">
+        <v>96</v>
+      </c>
+      <c r="C23" s="11">
+        <v>58</v>
+      </c>
+      <c r="D23" s="11">
+        <v>98</v>
+      </c>
+      <c r="E23" s="11">
+        <v>7</v>
+      </c>
+      <c r="F23" s="11">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="2"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="3"/>
+        <v>3.5999999999999852E-3</v>
+      </c>
+      <c r="I23" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="J23" s="11">
+        <v>430</v>
+      </c>
+      <c r="K23" s="23" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="11">
+        <v>96</v>
+      </c>
+      <c r="C24" s="11">
+        <v>71</v>
+      </c>
+      <c r="D24" s="11">
+        <v>99.5</v>
+      </c>
+      <c r="E24" s="11">
+        <v>5</v>
+      </c>
+      <c r="F24" s="11">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0999999999999851E-3</v>
+      </c>
+      <c r="I24" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="J24" s="11">
+        <v>380</v>
+      </c>
+      <c r="K24" s="23" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="11">
+        <v>99</v>
+      </c>
+      <c r="C25" s="11">
+        <v>120</v>
+      </c>
+      <c r="D25" s="11">
+        <v>75</v>
+      </c>
+      <c r="E25" s="11">
+        <v>3</v>
+      </c>
+      <c r="F25" s="11">
+        <v>4</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="2"/>
+        <v>0.02</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="3"/>
+        <v>3.5812499999999972E-3</v>
+      </c>
+      <c r="I25" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="J25" s="11">
+        <v>380</v>
+      </c>
+      <c r="K25" s="23" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="11">
+        <v>107</v>
+      </c>
+      <c r="C26" s="11">
+        <v>55</v>
+      </c>
+      <c r="D26" s="11">
+        <v>111</v>
+      </c>
+      <c r="E26" s="11">
+        <v>7</v>
+      </c>
+      <c r="F26" s="11">
+        <v>3</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="2"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="3"/>
+        <v>2.2416666666666553E-3</v>
+      </c>
+      <c r="I26" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="J26" s="11">
+        <v>430</v>
+      </c>
+      <c r="K26" s="23" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="11">
+        <v>107</v>
+      </c>
+      <c r="C27" s="11">
+        <v>85</v>
+      </c>
+      <c r="D27" s="11">
+        <v>111</v>
+      </c>
+      <c r="E27" s="11">
+        <v>4</v>
+      </c>
+      <c r="F27" s="11">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="2"/>
+        <v>0.04</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="3"/>
+        <v>2.2416666666666553E-3</v>
+      </c>
+      <c r="I27" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="J27" s="11">
+        <v>380</v>
+      </c>
+      <c r="K27" s="23" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="30"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="30"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="30"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:L1" xr:uid="{E4DE112E-8AAE-467B-8A25-E95ADDCC1301}"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{282419EA-99B2-4CB6-84B3-BF489082954E}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{5A1A4456-9267-4720-8AB5-57FFAA64340F}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{978B6AD6-7EF0-40BE-AD11-A8F189D842F5}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{76CF02D8-6B82-4382-BB3D-A395692F6C99}"/>
+    <hyperlink ref="K6" r:id="rId5" xr:uid="{EF78DBB4-3430-4EC4-9A06-BBDBA1892DCF}"/>
+    <hyperlink ref="K7" r:id="rId6" xr:uid="{7F1B186F-EFC0-4F71-800A-F326B03FB73E}"/>
+    <hyperlink ref="K8" r:id="rId7" xr:uid="{DCD39834-78D8-4D43-94D5-8A3B1F5A58E3}"/>
+    <hyperlink ref="K9" r:id="rId8" xr:uid="{300492A7-25FE-4A9F-8CA5-0D1557A42519}"/>
+    <hyperlink ref="K10" r:id="rId9" xr:uid="{777F2B4F-749B-4BE3-83A2-7877924DDC23}"/>
+    <hyperlink ref="K11" r:id="rId10" xr:uid="{AF512855-4CCA-42E9-8F7B-DAB65DA7E7B3}"/>
+    <hyperlink ref="K12" r:id="rId11" xr:uid="{DFE459CF-C57D-499E-A9B1-94E1191607E0}"/>
+    <hyperlink ref="K13" r:id="rId12" xr:uid="{BDDA4262-55CD-4630-BCC2-857AFD0BA76C}"/>
+    <hyperlink ref="K14" r:id="rId13" xr:uid="{D3FB7D83-158E-42FB-9920-5E8BB320DE44}"/>
+    <hyperlink ref="K15" r:id="rId14" xr:uid="{9DC45467-828E-451D-9298-95296E2F9CE3}"/>
+    <hyperlink ref="K16" r:id="rId15" xr:uid="{718ECE95-D180-404C-B4B0-049AFDF7CA6D}"/>
+    <hyperlink ref="K17" r:id="rId16" xr:uid="{E69442AF-4A82-4518-A7EC-D05579CB31DA}"/>
+    <hyperlink ref="K18" r:id="rId17" xr:uid="{E230C680-57D3-4000-8774-D8AAC91FFD34}"/>
+    <hyperlink ref="K19" r:id="rId18" xr:uid="{AC2E9376-3A5B-4429-8492-EDD93E5DBC62}"/>
+    <hyperlink ref="K20" r:id="rId19" xr:uid="{3626575D-8C66-4AC8-8CF0-CF2EB783B6CC}"/>
+    <hyperlink ref="K21" r:id="rId20" xr:uid="{4DD649E9-51ED-44E1-85EA-78DA560D288C}"/>
+    <hyperlink ref="K22" r:id="rId21" xr:uid="{222F94DE-037A-41FB-9B85-A8BD0672087A}"/>
+    <hyperlink ref="K23" r:id="rId22" xr:uid="{689AB34B-EC2B-4B58-924D-A88E849533DC}"/>
+    <hyperlink ref="K24" r:id="rId23" xr:uid="{8744AAA3-1962-44FD-98F6-F3EFEC3B643F}"/>
+    <hyperlink ref="K25" r:id="rId24" xr:uid="{2159805F-609F-4A4A-ACCD-F3D689E5CCDD}"/>
+    <hyperlink ref="K26" r:id="rId25" xr:uid="{7DE86792-8C0F-4B79-9C64-37DF938D9735}"/>
+    <hyperlink ref="K27" r:id="rId26" xr:uid="{EBA6472F-3380-4944-8EFD-2AC360D5EEC7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141B6A2B-558D-459B-B2EB-D8C2606F46D1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" customWidth="1"/>
+    <col min="11" max="11" width="40.85546875" customWidth="1"/>
+    <col min="12" max="12" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="11">
+        <v>117</v>
+      </c>
+      <c r="C2" s="11">
+        <v>59</v>
+      </c>
+      <c r="D2" s="11">
+        <v>90</v>
+      </c>
+      <c r="E2" s="11">
+        <v>7</v>
+      </c>
+      <c r="F2" s="11">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1">
+        <f>(J2-(C2*E2))/1000</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H2" s="1">
+        <f>(((B2*3.175)-(D2*F2))/F2)/1000</f>
+        <v>2.8687499999999915E-3</v>
+      </c>
+      <c r="I2" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="J2" s="11">
+        <v>430</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="11">
+        <v>104</v>
+      </c>
+      <c r="C3" s="11">
+        <v>80</v>
+      </c>
+      <c r="D3" s="11">
+        <v>80</v>
+      </c>
+      <c r="E3" s="11">
+        <v>5</v>
+      </c>
+      <c r="F3" s="11">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G4" si="0">(J3-(C3*E3))/1000</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H4" si="1">(((B3*3.175)-(D3*F3))/F3)/1000</f>
+        <v>2.5499999999999971E-3</v>
+      </c>
+      <c r="I3" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="J3" s="11">
+        <v>435</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="11">
+        <v>104</v>
+      </c>
+      <c r="C4" s="11">
+        <v>58</v>
+      </c>
+      <c r="D4" s="11">
+        <v>53</v>
+      </c>
+      <c r="E4" s="11">
+        <v>7</v>
+      </c>
+      <c r="F4" s="11">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="1"/>
+        <v>2.0333333333333314E-3</v>
+      </c>
+      <c r="I4" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="J4" s="11">
+        <v>435</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="30"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="23"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="23"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="23"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="23"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="23"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="30"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="23"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="23"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="23"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="23"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="23"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="23"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="30"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="23"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="23"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="23"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="23"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="30"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="23"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="23"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="23"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="30"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="23"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="30"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="23"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="30"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="23"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="30"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="23"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="30"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="23"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:L4" xr:uid="{141B6A2B-558D-459B-B2EB-D8C2606F46D1}"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{1B6CB218-B865-46DC-A7F2-35F59E9DBC99}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{B88C1C5E-8920-44DF-AC86-3B69C9173472}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{919B160C-78FA-4505-9109-BC50F6E0F2E3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Каталог вырубных ножей.xlsx
+++ b/Каталог вырубных ножей.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Вырубка\Rotazija\Каталог ножей\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5443B6D4-FE51-4245-98E0-E01E9952D468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D1EFB4-44A6-4CD8-9590-538CC34C916A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="eNZ3DEWHWUbEJ64mIZuGDJ9utI0XMNsy+3jTw4sbn9v6PPAjuOJI1Pc/fpmsqM2TfB6ij++LPsoh99D+EMSFvw==" workbookSaltValue="pY4gvKVwq+HUAIGIZq8nbg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="414">
   <si>
     <t>№</t>
   </si>
@@ -1270,9 +1270,6 @@
   </si>
   <si>
     <t>старый, при заказе переделать</t>
-  </si>
-  <si>
-    <t>переделать</t>
   </si>
   <si>
     <t>при большом заказе переделать на другой вал</t>
@@ -1369,7 +1366,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1388,12 +1385,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF00FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1408,7 +1399,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1500,22 +1491,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1883,8 +1858,8 @@
   <dimension ref="A1:M400"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K245" sqref="K245"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K88" sqref="K88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2532,7 +2507,7 @@
       <c r="J16" s="1">
         <v>190</v>
       </c>
-      <c r="K16" s="44" t="s">
+      <c r="K16" s="38" t="s">
         <v>400</v>
       </c>
       <c r="M16" s="2"/>
@@ -2570,7 +2545,7 @@
       <c r="J17" s="1">
         <v>190</v>
       </c>
-      <c r="K17" s="43" t="s">
+      <c r="K17" s="37" t="s">
         <v>400</v>
       </c>
       <c r="M17" s="2"/>
@@ -3245,7 +3220,7 @@
         <v>63</v>
       </c>
       <c r="L34" s="24" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M34" s="2"/>
     </row>
@@ -3286,7 +3261,7 @@
         <v>63</v>
       </c>
       <c r="L35" s="24" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M35" s="2"/>
     </row>
@@ -4290,11 +4265,11 @@
       <c r="J60" s="1">
         <v>220</v>
       </c>
-      <c r="K60" s="42" t="s">
-        <v>400</v>
-      </c>
-      <c r="L60" s="41" t="s">
-        <v>411</v>
+      <c r="K60" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="L60" s="35" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -4608,45 +4583,43 @@
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="35" t="s">
+    <row r="69" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="B69" s="36">
-        <v>80</v>
-      </c>
-      <c r="C69" s="36">
-        <v>53</v>
-      </c>
-      <c r="D69" s="36">
-        <v>82</v>
-      </c>
-      <c r="E69" s="36">
-        <v>3</v>
-      </c>
-      <c r="F69" s="36">
-        <v>3</v>
-      </c>
-      <c r="G69" s="36">
+      <c r="B69" s="18">
+        <v>104</v>
+      </c>
+      <c r="C69" s="18">
+        <v>107</v>
+      </c>
+      <c r="D69" s="18">
+        <v>107</v>
+      </c>
+      <c r="E69" s="18">
+        <v>2</v>
+      </c>
+      <c r="F69" s="18">
+        <v>3</v>
+      </c>
+      <c r="G69" s="18">
         <f t="shared" si="2"/>
-        <v>3.1E-2</v>
-      </c>
-      <c r="H69" s="36">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H69" s="18">
         <f t="shared" si="3"/>
-        <v>2.6666666666666666E-3</v>
-      </c>
-      <c r="I69" s="37" t="s">
-        <v>371</v>
-      </c>
-      <c r="J69" s="36">
-        <v>190</v>
-      </c>
-      <c r="K69" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="L69" s="39" t="s">
-        <v>410</v>
-      </c>
+        <v>3.0666666666666629E-3</v>
+      </c>
+      <c r="I69" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="J69" s="18">
+        <v>230</v>
+      </c>
+      <c r="K69" s="34" t="s">
+        <v>399</v>
+      </c>
+      <c r="L69" s="26"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="28" t="s">
@@ -5347,27 +5320,45 @@
         <v>368</v>
       </c>
     </row>
-    <row r="88" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="31" t="s">
+    <row r="88" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13">
+      <c r="B88" s="18">
+        <v>64</v>
+      </c>
+      <c r="C88" s="18">
+        <v>100</v>
+      </c>
+      <c r="D88" s="18">
+        <v>200</v>
+      </c>
+      <c r="E88" s="18">
+        <v>2</v>
+      </c>
+      <c r="F88" s="18">
+        <v>1</v>
+      </c>
+      <c r="G88" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H88" s="1" t="e">
+        <v>0.02</v>
+      </c>
+      <c r="H88" s="18">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I88" s="14"/>
-      <c r="J88" s="13"/>
-      <c r="K88" s="15"/>
-      <c r="L88" s="27"/>
+        <v>3.1999999999999884E-3</v>
+      </c>
+      <c r="I88" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="J88" s="18">
+        <v>220</v>
+      </c>
+      <c r="K88" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="L88" s="26" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="89" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="29" t="s">
@@ -16346,9 +16337,11 @@
     <hyperlink ref="K4" r:id="rId355" xr:uid="{DB774910-0E08-490C-B6C5-913123BC6FCD}"/>
     <hyperlink ref="K3" r:id="rId356" display="старый" xr:uid="{CCA35AA8-B9CE-4D4F-AB27-5ED7E8DDD0CC}"/>
     <hyperlink ref="K2" r:id="rId357" xr:uid="{CA731CB1-94CD-4AA0-8199-01D12BB38C1B}"/>
+    <hyperlink ref="K69" r:id="rId358" display="Квадрат" xr:uid="{CDA949F0-B44F-44E4-A426-03C883BD2D6F}"/>
+    <hyperlink ref="K88" r:id="rId359" xr:uid="{AF7312FD-D94B-4A7A-BD3A-9AD3DC2D2C66}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="79" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId358"/>
+  <pageSetup paperSize="8" scale="79" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId360"/>
 </worksheet>
 </file>
 
@@ -16436,7 +16429,7 @@
         <f>(((B2*3.175)-(D2*F2))/F2)/1000</f>
         <v>3.5428571428571367E-3</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="39" t="s">
         <v>371</v>
       </c>
       <c r="J2" s="11">
@@ -16445,7 +16438,7 @@
       <c r="K2" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="L2" s="46"/>
+      <c r="L2" s="40"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -16474,7 +16467,7 @@
         <f t="shared" ref="H3:H16" si="1">(((B3*3.175)-(D3*F3))/F3)/1000</f>
         <v>2.4517857142857132E-3</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="39" t="s">
         <v>371</v>
       </c>
       <c r="J3" s="11">
@@ -16483,7 +16476,7 @@
       <c r="K3" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="L3" s="46"/>
+      <c r="L3" s="40"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
@@ -16512,7 +16505,7 @@
         <f t="shared" si="1"/>
         <v>2.7090909090909049E-3</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="39" t="s">
         <v>371</v>
       </c>
       <c r="J4" s="11">
@@ -16521,11 +16514,11 @@
       <c r="K4" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="L4" s="46"/>
+      <c r="L4" s="40"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B5" s="11">
         <v>105</v>
@@ -16550,7 +16543,7 @@
         <f t="shared" si="1"/>
         <v>2.7812499999999999E-3</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="39" t="s">
         <v>371</v>
       </c>
       <c r="J5" s="11">
@@ -16559,7 +16552,7 @@
       <c r="K5" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="L5" s="46"/>
+      <c r="L5" s="40"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
@@ -16588,7 +16581,7 @@
         <f t="shared" si="1"/>
         <v>3.8666666666666619E-3</v>
       </c>
-      <c r="I6" s="45" t="s">
+      <c r="I6" s="39" t="s">
         <v>371</v>
       </c>
       <c r="J6" s="11">
@@ -16597,11 +16590,11 @@
       <c r="K6" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="L6" s="46"/>
+      <c r="L6" s="40"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B7" s="11">
         <v>105</v>
@@ -16626,7 +16619,7 @@
         <f t="shared" si="1"/>
         <v>3.3374999999999998E-3</v>
       </c>
-      <c r="I7" s="45" t="s">
+      <c r="I7" s="39" t="s">
         <v>371</v>
       </c>
       <c r="J7" s="11">
@@ -16635,7 +16628,7 @@
       <c r="K7" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="L7" s="46"/>
+      <c r="L7" s="40"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
@@ -16664,7 +16657,7 @@
         <f t="shared" si="1"/>
         <v>2.8649999999999978E-3</v>
       </c>
-      <c r="I8" s="45" t="s">
+      <c r="I8" s="39" t="s">
         <v>371</v>
       </c>
       <c r="J8" s="11">
@@ -16673,7 +16666,7 @@
       <c r="K8" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="L8" s="46"/>
+      <c r="L8" s="40"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
@@ -16702,7 +16695,7 @@
         <f t="shared" si="1"/>
         <v>3.5999999999999852E-3</v>
       </c>
-      <c r="I9" s="45" t="s">
+      <c r="I9" s="39" t="s">
         <v>371</v>
       </c>
       <c r="J9" s="11">
@@ -16711,7 +16704,7 @@
       <c r="K9" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="L9" s="46"/>
+      <c r="L9" s="40"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
@@ -16740,7 +16733,7 @@
         <f t="shared" si="1"/>
         <v>3.5812499999999972E-3</v>
       </c>
-      <c r="I10" s="45" t="s">
+      <c r="I10" s="39" t="s">
         <v>371</v>
       </c>
       <c r="J10" s="11">
@@ -16749,7 +16742,7 @@
       <c r="K10" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="L10" s="46"/>
+      <c r="L10" s="40"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
@@ -16778,7 +16771,7 @@
         <f t="shared" si="1"/>
         <v>2.9599999999999913E-3</v>
       </c>
-      <c r="I11" s="45" t="s">
+      <c r="I11" s="39" t="s">
         <v>371</v>
       </c>
       <c r="J11" s="11">
@@ -16787,7 +16780,7 @@
       <c r="K11" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="L11" s="46"/>
+      <c r="L11" s="40"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
@@ -16816,7 +16809,7 @@
         <f t="shared" si="1"/>
         <v>1.0574999999999989E-2</v>
       </c>
-      <c r="I12" s="45" t="s">
+      <c r="I12" s="39" t="s">
         <v>371</v>
       </c>
       <c r="J12" s="11">
@@ -16825,7 +16818,7 @@
       <c r="K12" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="L12" s="46"/>
+      <c r="L12" s="40"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
@@ -16854,7 +16847,7 @@
         <f t="shared" si="1"/>
         <v>2.1999999999999884E-3</v>
       </c>
-      <c r="I13" s="45" t="s">
+      <c r="I13" s="39" t="s">
         <v>371</v>
       </c>
       <c r="J13" s="11">
@@ -16863,7 +16856,7 @@
       <c r="K13" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="L13" s="46"/>
+      <c r="L13" s="40"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
@@ -16892,7 +16885,7 @@
         <f t="shared" si="1"/>
         <v>2.8649999999999978E-3</v>
       </c>
-      <c r="I14" s="45" t="s">
+      <c r="I14" s="39" t="s">
         <v>371</v>
       </c>
       <c r="J14" s="11">
@@ -16901,7 +16894,7 @@
       <c r="K14" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="L14" s="46"/>
+      <c r="L14" s="40"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
@@ -16930,7 +16923,7 @@
         <f t="shared" si="1"/>
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="I15" s="45" t="s">
+      <c r="I15" s="39" t="s">
         <v>371</v>
       </c>
       <c r="J15" s="11">
@@ -16939,7 +16932,7 @@
       <c r="K15" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="L15" s="46"/>
+      <c r="L15" s="40"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
@@ -16968,7 +16961,7 @@
         <f t="shared" si="1"/>
         <v>1.9999999999999857E-3</v>
       </c>
-      <c r="I16" s="45" t="s">
+      <c r="I16" s="39" t="s">
         <v>371</v>
       </c>
       <c r="J16" s="11">
@@ -16977,7 +16970,7 @@
       <c r="K16" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="L16" s="46"/>
+      <c r="L16" s="40"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
@@ -17006,7 +16999,7 @@
         <f t="shared" ref="H17:H27" si="3">(((B17*3.175)-(D17*F17))/F17)/1000</f>
         <v>2.4799999999999957E-3</v>
       </c>
-      <c r="I17" s="45" t="s">
+      <c r="I17" s="39" t="s">
         <v>371</v>
       </c>
       <c r="J17" s="11">
@@ -17043,7 +17036,7 @@
         <f t="shared" si="3"/>
         <v>2.9599999999999913E-3</v>
       </c>
-      <c r="I18" s="45" t="s">
+      <c r="I18" s="39" t="s">
         <v>371</v>
       </c>
       <c r="J18" s="11">
@@ -17080,7 +17073,7 @@
         <f t="shared" si="3"/>
         <v>2.5949999999999931E-3</v>
       </c>
-      <c r="I19" s="45" t="s">
+      <c r="I19" s="39" t="s">
         <v>371</v>
       </c>
       <c r="J19" s="11">
@@ -17117,7 +17110,7 @@
         <f t="shared" si="3"/>
         <v>3.3374999999999998E-3</v>
       </c>
-      <c r="I20" s="45" t="s">
+      <c r="I20" s="39" t="s">
         <v>371</v>
       </c>
       <c r="J20" s="11">
@@ -17154,7 +17147,7 @@
         <f t="shared" si="3"/>
         <v>2.7812499999999999E-3</v>
       </c>
-      <c r="I21" s="45" t="s">
+      <c r="I21" s="39" t="s">
         <v>371</v>
       </c>
       <c r="J21" s="11">
@@ -17191,7 +17184,7 @@
         <f t="shared" si="3"/>
         <v>2.3874999999999981E-3</v>
       </c>
-      <c r="I22" s="45" t="s">
+      <c r="I22" s="39" t="s">
         <v>371</v>
       </c>
       <c r="J22" s="11">
@@ -17228,7 +17221,7 @@
         <f t="shared" si="3"/>
         <v>3.5999999999999852E-3</v>
       </c>
-      <c r="I23" s="45" t="s">
+      <c r="I23" s="39" t="s">
         <v>371</v>
       </c>
       <c r="J23" s="11">
@@ -17265,7 +17258,7 @@
         <f t="shared" si="3"/>
         <v>2.0999999999999851E-3</v>
       </c>
-      <c r="I24" s="45" t="s">
+      <c r="I24" s="39" t="s">
         <v>371</v>
       </c>
       <c r="J24" s="11">
@@ -17302,7 +17295,7 @@
         <f t="shared" si="3"/>
         <v>3.5812499999999972E-3</v>
       </c>
-      <c r="I25" s="45" t="s">
+      <c r="I25" s="39" t="s">
         <v>371</v>
       </c>
       <c r="J25" s="11">
@@ -17339,7 +17332,7 @@
         <f t="shared" si="3"/>
         <v>2.2416666666666553E-3</v>
       </c>
-      <c r="I26" s="45" t="s">
+      <c r="I26" s="39" t="s">
         <v>371</v>
       </c>
       <c r="J26" s="11">
@@ -17376,7 +17369,7 @@
         <f t="shared" si="3"/>
         <v>2.2416666666666553E-3</v>
       </c>
-      <c r="I27" s="45" t="s">
+      <c r="I27" s="39" t="s">
         <v>371</v>
       </c>
       <c r="J27" s="11">
@@ -17395,7 +17388,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="45"/>
+      <c r="I28" s="39"/>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
     </row>
@@ -17408,7 +17401,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="45"/>
+      <c r="I29" s="39"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
     </row>
@@ -17421,7 +17414,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="45"/>
+      <c r="I30" s="39"/>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
     </row>
@@ -17544,7 +17537,7 @@
         <f>(((B2*3.175)-(D2*F2))/F2)/1000</f>
         <v>2.8687499999999915E-3</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="39" t="s">
         <v>371</v>
       </c>
       <c r="J2" s="11">
@@ -17581,7 +17574,7 @@
         <f t="shared" ref="H3:H4" si="1">(((B3*3.175)-(D3*F3))/F3)/1000</f>
         <v>2.5499999999999971E-3</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="39" t="s">
         <v>371</v>
       </c>
       <c r="J3" s="11">
@@ -17618,7 +17611,7 @@
         <f t="shared" si="1"/>
         <v>2.0333333333333314E-3</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="39" t="s">
         <v>371</v>
       </c>
       <c r="J4" s="11">
@@ -17637,7 +17630,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="45"/>
+      <c r="I5" s="39"/>
       <c r="J5" s="11"/>
       <c r="K5" s="23"/>
     </row>
@@ -17650,7 +17643,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="45"/>
+      <c r="I6" s="39"/>
       <c r="J6" s="11"/>
       <c r="K6" s="23"/>
     </row>
@@ -17663,7 +17656,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="45"/>
+      <c r="I7" s="39"/>
       <c r="J7" s="11"/>
       <c r="K7" s="23"/>
     </row>
@@ -17676,7 +17669,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="45"/>
+      <c r="I8" s="39"/>
       <c r="J8" s="11"/>
       <c r="K8" s="23"/>
     </row>
@@ -17689,7 +17682,7 @@
       <c r="F9" s="11"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="45"/>
+      <c r="I9" s="39"/>
       <c r="J9" s="11"/>
       <c r="K9" s="23"/>
     </row>
@@ -17702,7 +17695,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="45"/>
+      <c r="I10" s="39"/>
       <c r="J10" s="11"/>
       <c r="K10" s="23"/>
     </row>
@@ -17715,7 +17708,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="45"/>
+      <c r="I11" s="39"/>
       <c r="J11" s="11"/>
       <c r="K11" s="23"/>
     </row>
@@ -17728,7 +17721,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="45"/>
+      <c r="I12" s="39"/>
       <c r="J12" s="11"/>
       <c r="K12" s="23"/>
     </row>
@@ -17741,7 +17734,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="45"/>
+      <c r="I13" s="39"/>
       <c r="J13" s="11"/>
       <c r="K13" s="23"/>
     </row>
@@ -17754,7 +17747,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="45"/>
+      <c r="I14" s="39"/>
       <c r="J14" s="11"/>
       <c r="K14" s="23"/>
     </row>
@@ -17767,7 +17760,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="45"/>
+      <c r="I15" s="39"/>
       <c r="J15" s="11"/>
       <c r="K15" s="23"/>
     </row>
@@ -17780,7 +17773,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="45"/>
+      <c r="I16" s="39"/>
       <c r="J16" s="11"/>
       <c r="K16" s="23"/>
     </row>
@@ -17793,7 +17786,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="45"/>
+      <c r="I17" s="39"/>
       <c r="J17" s="11"/>
       <c r="K17" s="23"/>
     </row>
@@ -17806,7 +17799,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="45"/>
+      <c r="I18" s="39"/>
       <c r="J18" s="11"/>
       <c r="K18" s="23"/>
     </row>
@@ -17819,7 +17812,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="45"/>
+      <c r="I19" s="39"/>
       <c r="J19" s="11"/>
       <c r="K19" s="23"/>
     </row>
@@ -17832,7 +17825,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="45"/>
+      <c r="I20" s="39"/>
       <c r="J20" s="11"/>
       <c r="K20" s="23"/>
     </row>
@@ -17845,7 +17838,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="45"/>
+      <c r="I21" s="39"/>
       <c r="J21" s="11"/>
       <c r="K21" s="23"/>
     </row>
@@ -17858,7 +17851,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="45"/>
+      <c r="I22" s="39"/>
       <c r="J22" s="11"/>
       <c r="K22" s="23"/>
     </row>
@@ -17871,7 +17864,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="45"/>
+      <c r="I23" s="39"/>
       <c r="J23" s="11"/>
       <c r="K23" s="23"/>
     </row>
@@ -17884,7 +17877,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="45"/>
+      <c r="I24" s="39"/>
       <c r="J24" s="11"/>
       <c r="K24" s="23"/>
     </row>
@@ -17897,7 +17890,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="45"/>
+      <c r="I25" s="39"/>
       <c r="J25" s="11"/>
       <c r="K25" s="23"/>
     </row>
@@ -17910,7 +17903,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="45"/>
+      <c r="I26" s="39"/>
       <c r="J26" s="11"/>
       <c r="K26" s="23"/>
     </row>
@@ -17923,7 +17916,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="45"/>
+      <c r="I27" s="39"/>
       <c r="J27" s="11"/>
       <c r="K27" s="23"/>
     </row>

--- a/Каталог вырубных ножей.xlsx
+++ b/Каталог вырубных ножей.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Вырубка\Rotazija\Каталог ножей\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D1EFB4-44A6-4CD8-9590-538CC34C916A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF100BA-5084-4269-A9B4-53061AB87E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="eNZ3DEWHWUbEJ64mIZuGDJ9utI0XMNsy+3jTw4sbn9v6PPAjuOJI1Pc/fpmsqM2TfB6ij++LPsoh99D+EMSFvw==" workbookSaltValue="pY4gvKVwq+HUAIGIZq8nbg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NilPeter" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="415">
   <si>
     <t>№</t>
   </si>
@@ -1282,13 +1282,16 @@
   </si>
   <si>
     <t>004A</t>
+  </si>
+  <si>
+    <t>дублируется с ножом №102, только на больший вал</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1365,6 +1368,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1399,7 +1411,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1507,6 +1519,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1857,9 +1872,9 @@
   </sheetPr>
   <dimension ref="A1:M400"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K88" sqref="K88"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L105" sqref="L105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5978,21 +5993,45 @@
         <v>400</v>
       </c>
     </row>
-    <row r="105" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="31" t="s">
+    <row r="105" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="B105" s="13"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="13"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="13"/>
-      <c r="I105" s="14"/>
-      <c r="J105" s="13"/>
-      <c r="K105" s="15"/>
-      <c r="L105" s="27"/>
+      <c r="B105" s="18">
+        <v>88</v>
+      </c>
+      <c r="C105" s="18">
+        <v>20</v>
+      </c>
+      <c r="D105" s="18">
+        <v>15</v>
+      </c>
+      <c r="E105" s="18">
+        <v>9</v>
+      </c>
+      <c r="F105" s="18">
+        <v>16</v>
+      </c>
+      <c r="G105" s="18">
+        <f t="shared" si="2"/>
+        <v>0.04</v>
+      </c>
+      <c r="H105" s="18">
+        <f t="shared" si="3"/>
+        <v>2.4624999999999985E-3</v>
+      </c>
+      <c r="I105" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="J105" s="18">
+        <v>220</v>
+      </c>
+      <c r="K105" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="L105" s="41" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="28" t="s">
@@ -16339,9 +16378,10 @@
     <hyperlink ref="K2" r:id="rId357" xr:uid="{CA731CB1-94CD-4AA0-8199-01D12BB38C1B}"/>
     <hyperlink ref="K69" r:id="rId358" display="Квадрат" xr:uid="{CDA949F0-B44F-44E4-A426-03C883BD2D6F}"/>
     <hyperlink ref="K88" r:id="rId359" xr:uid="{AF7312FD-D94B-4A7A-BD3A-9AD3DC2D2C66}"/>
+    <hyperlink ref="K105" r:id="rId360" xr:uid="{4251EC57-66B6-4A3C-95AD-C8EB6A3B3155}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="79" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId360"/>
+  <pageSetup paperSize="8" scale="79" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId361"/>
 </worksheet>
 </file>
 
@@ -16349,8 +16389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DE112E-8AAE-467B-8A25-E95ADDCC1301}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16992,11 +17032,11 @@
         <v>10</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" ref="G17:G27" si="2">(J17-(C17*E17))/1000</f>
+        <f t="shared" ref="G17:G28" si="2">(J17-(C17*E17))/1000</f>
         <v>0.02</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" ref="H17:H27" si="3">(((B17*3.175)-(D17*F17))/F17)/1000</f>
+        <f t="shared" ref="H17:H28" si="3">(((B17*3.175)-(D17*F17))/F17)/1000</f>
         <v>2.4799999999999957E-3</v>
       </c>
       <c r="I17" s="39" t="s">
@@ -17380,17 +17420,41 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
+      <c r="A28" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="11">
+        <v>97</v>
+      </c>
+      <c r="C28" s="11">
+        <v>100</v>
+      </c>
+      <c r="D28" s="11">
+        <v>100</v>
+      </c>
+      <c r="E28" s="11">
+        <v>2</v>
+      </c>
+      <c r="F28" s="11">
+        <v>3</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="2"/>
+        <v>0.02</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="3"/>
+        <v>2.658333333333322E-3</v>
+      </c>
+      <c r="I28" s="39" t="s">
+        <v>371</v>
+      </c>
+      <c r="J28" s="11">
+        <v>220</v>
+      </c>
+      <c r="K28" s="23" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="30"/>
@@ -17448,6 +17512,7 @@
     <hyperlink ref="K25" r:id="rId24" xr:uid="{2159805F-609F-4A4A-ACCD-F3D689E5CCDD}"/>
     <hyperlink ref="K26" r:id="rId25" xr:uid="{7DE86792-8C0F-4B79-9C64-37DF938D9735}"/>
     <hyperlink ref="K27" r:id="rId26" xr:uid="{EBA6472F-3380-4944-8EFD-2AC360D5EEC7}"/>
+    <hyperlink ref="K28" r:id="rId27" display="прямоугольник" xr:uid="{16501599-4B13-467D-8221-8DBC6E5FA538}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Каталог вырубных ножей.xlsx
+++ b/Каталог вырубных ножей.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Вырубка\Rotazija\Каталог ножей\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF100BA-5084-4269-A9B4-53061AB87E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56640F3-3C41-41EB-8AE5-EDDAA7096B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="eNZ3DEWHWUbEJ64mIZuGDJ9utI0XMNsy+3jTw4sbn9v6PPAjuOJI1Pc/fpmsqM2TfB6ij++LPsoh99D+EMSFvw==" workbookSaltValue="pY4gvKVwq+HUAIGIZq8nbg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NilPeter" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="416">
   <si>
     <t>№</t>
   </si>
@@ -1285,6 +1285,9 @@
   </si>
   <si>
     <t>дублируется с ножом №102, только на больший вал</t>
+  </si>
+  <si>
+    <t>прозрачная подложка</t>
   </si>
 </sst>
 </file>
@@ -1872,9 +1875,9 @@
   </sheetPr>
   <dimension ref="A1:M400"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L105" sqref="L105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I128" sqref="I128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6817,21 +6820,45 @@
         <v>400</v>
       </c>
     </row>
-    <row r="128" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="31" t="s">
+    <row r="128" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="B128" s="13"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="13"/>
-      <c r="E128" s="13"/>
-      <c r="F128" s="13"/>
-      <c r="G128" s="13"/>
-      <c r="H128" s="13"/>
-      <c r="I128" s="14"/>
-      <c r="J128" s="13"/>
-      <c r="K128" s="15"/>
-      <c r="L128" s="27"/>
+      <c r="B128" s="18">
+        <v>60</v>
+      </c>
+      <c r="C128" s="18">
+        <v>55</v>
+      </c>
+      <c r="D128" s="18">
+        <v>187.5</v>
+      </c>
+      <c r="E128" s="18">
+        <v>3</v>
+      </c>
+      <c r="F128" s="18">
+        <v>1</v>
+      </c>
+      <c r="G128" s="18">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H128" s="18">
+        <f t="shared" si="5"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I128" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="J128" s="18">
+        <v>190</v>
+      </c>
+      <c r="K128" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="L128" s="26" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="28" t="s">
@@ -16379,9 +16406,10 @@
     <hyperlink ref="K69" r:id="rId358" display="Квадрат" xr:uid="{CDA949F0-B44F-44E4-A426-03C883BD2D6F}"/>
     <hyperlink ref="K88" r:id="rId359" xr:uid="{AF7312FD-D94B-4A7A-BD3A-9AD3DC2D2C66}"/>
     <hyperlink ref="K105" r:id="rId360" xr:uid="{4251EC57-66B6-4A3C-95AD-C8EB6A3B3155}"/>
+    <hyperlink ref="K128" r:id="rId361" xr:uid="{3029A3D1-6D56-4BB0-8B03-59222C6B285F}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="79" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId361"/>
+  <pageSetup paperSize="8" scale="79" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId362"/>
 </worksheet>
 </file>
 
@@ -16389,7 +16417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DE112E-8AAE-467B-8A25-E95ADDCC1301}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>

--- a/Каталог вырубных ножей.xlsx
+++ b/Каталог вырубных ножей.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Вырубка\Rotazija\Каталог ножей\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56640F3-3C41-41EB-8AE5-EDDAA7096B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E847B133-FB47-4A6A-A49B-E262AD916D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="eNZ3DEWHWUbEJ64mIZuGDJ9utI0XMNsy+3jTw4sbn9v6PPAjuOJI1Pc/fpmsqM2TfB6ij++LPsoh99D+EMSFvw==" workbookSaltValue="pY4gvKVwq+HUAIGIZq8nbg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="416">
   <si>
     <t>№</t>
   </si>
@@ -1414,7 +1414,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1523,6 +1523,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1876,8 +1879,8 @@
   <dimension ref="A1:M400"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I128" sqref="I128"/>
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K195" sqref="K195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9245,7 +9248,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="28" t="s">
         <v>204</v>
       </c>
@@ -9282,7 +9285,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="28" t="s">
         <v>205</v>
       </c>
@@ -9319,14 +9322,47 @@
         <v>400</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="I195" s="3"/>
-      <c r="K195" s="4"/>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B195" s="1">
+        <v>68</v>
+      </c>
+      <c r="C195" s="1">
+        <v>83</v>
+      </c>
+      <c r="D195" s="1">
+        <v>208</v>
+      </c>
+      <c r="E195" s="1">
+        <v>2</v>
+      </c>
+      <c r="F195" s="1">
+        <v>1</v>
+      </c>
+      <c r="G195" s="1">
+        <f t="shared" si="6"/>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H195" s="1">
+        <f t="shared" si="7"/>
+        <v>7.8999999999999765E-3</v>
+      </c>
+      <c r="I195" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="J195" s="1">
+        <v>200</v>
+      </c>
+      <c r="K195" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="L195" s="42">
+        <v>44707</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="28" t="s">
         <v>207</v>
       </c>
@@ -9363,7 +9399,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="28" t="s">
         <v>208</v>
       </c>
@@ -9400,7 +9436,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="28" t="s">
         <v>209</v>
       </c>
@@ -9437,7 +9473,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="28" t="s">
         <v>210</v>
       </c>
@@ -9474,7 +9510,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="28" t="s">
         <v>211</v>
       </c>
@@ -9511,7 +9547,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="28" t="s">
         <v>212</v>
       </c>
@@ -9548,7 +9584,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="28" t="s">
         <v>213</v>
       </c>
@@ -9585,7 +9621,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="28" t="s">
         <v>214</v>
       </c>
@@ -9622,7 +9658,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="28" t="s">
         <v>215</v>
       </c>
@@ -9659,7 +9695,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="28" t="s">
         <v>216</v>
       </c>
@@ -9696,7 +9732,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="28" t="s">
         <v>217</v>
       </c>
@@ -9733,7 +9769,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="28" t="s">
         <v>218</v>
       </c>
@@ -9770,7 +9806,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="28" t="s">
         <v>219</v>
       </c>
@@ -16407,9 +16443,10 @@
     <hyperlink ref="K88" r:id="rId359" xr:uid="{AF7312FD-D94B-4A7A-BD3A-9AD3DC2D2C66}"/>
     <hyperlink ref="K105" r:id="rId360" xr:uid="{4251EC57-66B6-4A3C-95AD-C8EB6A3B3155}"/>
     <hyperlink ref="K128" r:id="rId361" xr:uid="{3029A3D1-6D56-4BB0-8B03-59222C6B285F}"/>
+    <hyperlink ref="K195" r:id="rId362" xr:uid="{EC852C81-98DB-40FA-BB3F-67ECEF62D373}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="79" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId362"/>
+  <pageSetup paperSize="8" scale="79" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId363"/>
 </worksheet>
 </file>
 

--- a/Каталог вырубных ножей.xlsx
+++ b/Каталог вырубных ножей.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Вырубка\Rotazija\Каталог ножей\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E347D1-B47B-4204-BE06-773374A1F859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A5E364-4A5C-414B-B95B-F801EEC73F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,15 +16,15 @@
     <sheet name="NilPeter" sheetId="1" r:id="rId1"/>
     <sheet name="Lesko" sheetId="2" r:id="rId2"/>
     <sheet name="MarkAndy" sheetId="3" r:id="rId3"/>
-    <sheet name="Фигурные" sheetId="4" r:id="rId4"/>
-    <sheet name="Перфорация" sheetId="5" r:id="rId5"/>
+    <sheet name="Фигурные (в работе)" sheetId="4" r:id="rId4"/>
+    <sheet name="Перфорация(в работе)" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_FilterDatabase" localSheetId="0" hidden="1">NilPeter!$A$1:$L$400</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Lesko!$A$1:$L$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">MarkAndy!$A$1:$L$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NilPeter!$A$1:$L$400</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Фигурные!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Фигурные (в работе)'!$A$1:$L$1</definedName>
   </definedNames>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="455">
   <si>
     <t>№</t>
   </si>
@@ -1398,6 +1398,15 @@
   </si>
   <si>
     <t>RAA</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>RLL,RAA</t>
+  </si>
+  <si>
+    <t>RLL, slow speed</t>
   </si>
 </sst>
 </file>
@@ -1950,8 +1959,8 @@
   <dimension ref="A1:M400"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A361" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K390" sqref="K390"/>
+      <pane ySplit="1" topLeftCell="A370" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K391" sqref="K391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1966,7 +1975,7 @@
     <col min="10" max="10" width="8.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="40.85546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="15" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -16718,8 +16727,47 @@
       </c>
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I391" s="2"/>
-      <c r="K391" s="3"/>
+      <c r="A391" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="B391" s="1">
+        <v>80</v>
+      </c>
+      <c r="C391" s="1">
+        <v>15</v>
+      </c>
+      <c r="D391" s="1">
+        <v>40</v>
+      </c>
+      <c r="E391" s="1">
+        <v>10</v>
+      </c>
+      <c r="F391" s="1">
+        <v>6</v>
+      </c>
+      <c r="G391" s="1">
+        <f t="shared" ref="G391" si="30">(J391-(C391*E391))/1000</f>
+        <v>0.05</v>
+      </c>
+      <c r="H391" s="1">
+        <f t="shared" ref="H391" si="31">(((B391*3.175)-(D391*F391))/F391)/1000</f>
+        <v>2.3333333333333335E-3</v>
+      </c>
+      <c r="I391" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="J391" s="1">
+        <v>200</v>
+      </c>
+      <c r="K391" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="L391" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="M391" s="38">
+        <v>45562</v>
+      </c>
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I392" s="2"/>
@@ -17150,9 +17198,10 @@
     <hyperlink ref="K388" r:id="rId387" xr:uid="{4B06D75E-B87F-46A1-95AF-001BED8FAA12}"/>
     <hyperlink ref="K389" r:id="rId388" xr:uid="{6E772426-0A9C-416B-AE9D-24EA2884CA6A}"/>
     <hyperlink ref="K390" r:id="rId389" xr:uid="{9F16E471-F8CF-4AB4-AE1B-4EF38EA262E8}"/>
+    <hyperlink ref="K391" r:id="rId390" xr:uid="{3C3CD01A-4489-4BC0-BE60-3325F3D3C2D2}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="79" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId390"/>
+  <pageSetup paperSize="8" scale="79" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId391"/>
 </worksheet>
 </file>
 
@@ -18422,7 +18471,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18899,34 +18948,88 @@
         <v>400</v>
       </c>
       <c r="L12" s="10" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="10">
+        <v>128</v>
+      </c>
+      <c r="C13" s="10">
+        <v>58</v>
+      </c>
+      <c r="D13" s="10">
+        <v>98.5</v>
+      </c>
+      <c r="E13" s="10">
+        <v>7</v>
+      </c>
+      <c r="F13" s="10">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" ref="G13:G14" si="6">(J13-(C13*E13))/1000</f>
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" ref="H13:H14" si="7">(((B13*3.175)-(D13*F13))/F13)/1000</f>
+        <v>3.0999999999999943E-3</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="J13" s="10">
+        <v>435</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="L13" s="10" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="14"/>
-    </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="14"/>
+      <c r="A14" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="10">
+        <v>104</v>
+      </c>
+      <c r="C14" s="10">
+        <v>39</v>
+      </c>
+      <c r="D14" s="10">
+        <v>80</v>
+      </c>
+      <c r="E14" s="10">
+        <v>10</v>
+      </c>
+      <c r="F14" s="10">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="6"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="7"/>
+        <v>2.5499999999999971E-3</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="J14" s="10">
+        <v>435</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
@@ -19112,6 +19215,8 @@
     <hyperlink ref="K10" r:id="rId9" xr:uid="{E68F9413-CCC6-4012-A475-AE398B14DE87}"/>
     <hyperlink ref="K11" r:id="rId10" xr:uid="{540F187B-D91A-4901-B3E4-13B57A60B610}"/>
     <hyperlink ref="K12" r:id="rId11" xr:uid="{8B142A13-9A74-44B7-959A-A818E2B2620D}"/>
+    <hyperlink ref="K13" r:id="rId12" xr:uid="{396F6662-187D-4ACE-955F-2FA511D5F70E}"/>
+    <hyperlink ref="K14" r:id="rId13" xr:uid="{163382A5-0304-4D05-B798-11B0C0F6CF2D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19123,7 +19228,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V24" sqref="V24"/>
+      <selection pane="bottomLeft" activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19449,544 +19554,199 @@
       <c r="L8" s="36"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1">
-        <v>108</v>
-      </c>
-      <c r="C9" s="1">
-        <v>92</v>
-      </c>
-      <c r="D9" s="1">
-        <v>167</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" ref="G9:G22" si="2">(J9-(C9*E9))/1000</f>
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="H9" s="1">
-        <v>4.45E-3</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="J9" s="1">
-        <v>220</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>56</v>
-      </c>
+      <c r="A9" s="17"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="15"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1">
-        <v>88</v>
-      </c>
-      <c r="C10" s="1">
-        <v>89.97</v>
-      </c>
-      <c r="D10" s="1">
-        <v>131.99</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" si="2"/>
-        <v>2.0060000000000001E-2</v>
-      </c>
-      <c r="H10" s="1">
-        <v>7.7099999999999998E-3</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="J10" s="1">
-        <v>200</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>56</v>
-      </c>
+      <c r="A10" s="17"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="15"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1">
-        <v>60</v>
-      </c>
-      <c r="C11" s="1">
-        <v>40</v>
-      </c>
-      <c r="D11" s="1">
-        <v>12</v>
-      </c>
-      <c r="E11" s="1">
-        <v>4</v>
-      </c>
-      <c r="F11" s="1">
-        <v>14</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" si="2"/>
-        <v>0.03</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1.6071428571429E-3</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="J11" s="1">
-        <v>190</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>56</v>
-      </c>
+      <c r="A11" s="17"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="15"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1">
-        <v>68</v>
-      </c>
-      <c r="C12" s="1">
-        <v>100</v>
-      </c>
-      <c r="D12" s="1">
-        <v>69.5</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2</v>
-      </c>
-      <c r="F12" s="1">
-        <v>3</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" si="2"/>
-        <v>0.02</v>
-      </c>
-      <c r="H12" s="1">
-        <f>(((B12*3.175)-(D12*F12))/F12)/1000</f>
-        <v>2.4666666666666591E-3</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="J12" s="1">
-        <v>220</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>400</v>
-      </c>
+      <c r="A12" s="17"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="13"/>
       <c r="L12" s="15"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="1">
-        <v>72</v>
-      </c>
-      <c r="C13" s="1">
-        <v>110</v>
-      </c>
-      <c r="D13" s="1">
-        <v>20</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>10</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" si="2"/>
-        <v>0.03</v>
-      </c>
-      <c r="H13" s="1">
-        <f t="shared" ref="H13:H22" si="3">(((B13*3.175)-(D13*F13))/F13)/1000</f>
-        <v>2.8599999999999993E-3</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="J13" s="1">
-        <v>140</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>56</v>
-      </c>
+      <c r="A13" s="17"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="15"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1">
-        <v>76</v>
-      </c>
-      <c r="C14" s="1">
-        <v>68</v>
-      </c>
-      <c r="D14" s="1">
-        <v>58</v>
-      </c>
-      <c r="E14" s="1">
-        <v>3</v>
-      </c>
-      <c r="F14" s="1">
-        <v>4</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" si="2"/>
-        <v>1.6E-2</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" si="3"/>
-        <v>2.3249999999999959E-3</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="J14" s="1">
-        <v>220</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>400</v>
-      </c>
+      <c r="A14" s="17"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="13"/>
       <c r="L14" s="15"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="1">
-        <v>80</v>
-      </c>
-      <c r="C15" s="1">
-        <v>58</v>
-      </c>
-      <c r="D15" s="1">
-        <v>61.5</v>
-      </c>
-      <c r="E15" s="1">
-        <v>3</v>
-      </c>
-      <c r="F15" s="1">
-        <v>4</v>
-      </c>
-      <c r="G15" s="1">
-        <f t="shared" si="2"/>
-        <v>1.6E-2</v>
-      </c>
-      <c r="H15" s="1">
-        <f t="shared" si="3"/>
-        <v>2E-3</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="J15" s="1">
-        <v>190</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="L15" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="1">
-        <v>96</v>
-      </c>
-      <c r="C16" s="1">
-        <v>58</v>
-      </c>
-      <c r="D16" s="1">
-        <v>59</v>
-      </c>
-      <c r="E16" s="1">
-        <v>3</v>
-      </c>
-      <c r="F16" s="1">
-        <v>5</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" si="2"/>
-        <v>1.6E-2</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" si="3"/>
-        <v>1.9599999999999908E-3</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="J16" s="1">
-        <v>190</v>
-      </c>
-      <c r="K16" s="25" t="s">
-        <v>400</v>
-      </c>
+      <c r="A15" s="17"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="15"/>
+    </row>
+    <row r="16" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="25"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="1">
-        <v>80</v>
-      </c>
-      <c r="C17" s="1">
-        <v>58</v>
-      </c>
-      <c r="D17" s="1">
-        <v>40.33</v>
-      </c>
-      <c r="E17" s="1">
-        <v>3</v>
-      </c>
-      <c r="F17" s="1">
-        <v>6</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" si="2"/>
-        <v>1.6E-2</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" si="3"/>
-        <v>2.0033333333333353E-3</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="J17" s="1">
-        <v>190</v>
-      </c>
-      <c r="K17" s="24" t="s">
-        <v>400</v>
-      </c>
+    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="24"/>
       <c r="L17" s="15"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="1">
-        <v>72</v>
-      </c>
-      <c r="C18" s="1">
-        <v>145</v>
-      </c>
-      <c r="D18" s="1">
-        <v>105</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>2</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" si="3"/>
-        <v>9.2999999999999975E-3</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="J18" s="1">
-        <v>170</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>56</v>
-      </c>
+      <c r="A18" s="17"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="15"/>
     </row>
     <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="1">
-        <v>96</v>
-      </c>
-      <c r="C19" s="1">
-        <v>85.5</v>
-      </c>
-      <c r="D19" s="1">
-        <v>143.5</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" si="2"/>
-        <v>1.9E-2</v>
-      </c>
-      <c r="H19" s="1">
-        <f t="shared" si="3"/>
-        <v>8.8999999999999774E-3</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="J19" s="1">
-        <v>190</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>400</v>
-      </c>
+      <c r="A19" s="17"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="13"/>
       <c r="L19" s="15"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="1">
-        <v>68</v>
-      </c>
-      <c r="C20" s="1">
-        <v>78</v>
-      </c>
-      <c r="D20" s="1">
-        <v>40</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2</v>
-      </c>
-      <c r="F20" s="1">
-        <v>5</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" si="2"/>
-        <v>1.4E-2</v>
-      </c>
-      <c r="H20" s="1">
-        <f t="shared" si="3"/>
-        <v>3.1799999999999953E-3</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="J20" s="1">
-        <v>170</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>400</v>
-      </c>
+      <c r="A20" s="17"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="13"/>
       <c r="L20" s="15"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="1">
-        <v>85</v>
-      </c>
-      <c r="C21" s="1">
-        <v>78</v>
-      </c>
-      <c r="D21" s="1">
-        <v>64</v>
-      </c>
-      <c r="E21" s="1">
-        <v>2</v>
-      </c>
-      <c r="F21" s="1">
-        <v>4</v>
-      </c>
-      <c r="G21" s="1">
-        <f t="shared" si="2"/>
-        <v>1.4E-2</v>
-      </c>
-      <c r="H21" s="1">
-        <f t="shared" si="3"/>
-        <v>3.46875E-3</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="J21" s="1">
-        <v>170</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>400</v>
-      </c>
+      <c r="A21" s="17"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="13"/>
       <c r="L21" s="15"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="1">
-        <v>72</v>
-      </c>
-      <c r="C22" s="1">
-        <v>78</v>
-      </c>
-      <c r="D22" s="1">
-        <v>55</v>
-      </c>
-      <c r="E22" s="1">
-        <v>2</v>
-      </c>
-      <c r="F22" s="1">
-        <v>4</v>
-      </c>
-      <c r="G22" s="1">
-        <f t="shared" si="2"/>
-        <v>1.4E-2</v>
-      </c>
-      <c r="H22" s="1">
-        <f t="shared" si="3"/>
-        <v>2.1499999999999987E-3</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="J22" s="1">
-        <v>170</v>
-      </c>
-      <c r="K22" s="13" t="s">
-        <v>400</v>
-      </c>
+      <c r="A22" s="17"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="13"/>
       <c r="L22" s="15"/>
     </row>
   </sheetData>
@@ -19998,22 +19758,8 @@
     <hyperlink ref="K4" r:id="rId3" xr:uid="{CC9E95C3-B9C7-4503-9697-225A0605CE3A}"/>
     <hyperlink ref="K5" r:id="rId4" xr:uid="{6D53B7B7-C749-4F2F-890F-048FA8DD0618}"/>
     <hyperlink ref="K6" r:id="rId5" xr:uid="{C16D9527-FF30-4F7D-A4D7-34E71E493A5F}"/>
-    <hyperlink ref="K9" r:id="rId6" xr:uid="{BB42FBC5-2263-417B-9A52-4F944D46CEAF}"/>
-    <hyperlink ref="K10" r:id="rId7" display="старый, большое расстояние" xr:uid="{DF418D1C-BB11-4C87-B962-DB10132F3DC8}"/>
-    <hyperlink ref="K11" r:id="rId8" xr:uid="{F8BBB967-F3A6-4093-BEFF-9EF51AE9DF34}"/>
-    <hyperlink ref="K12" r:id="rId9" xr:uid="{0FBA5628-387B-4499-A128-39631721AE57}"/>
-    <hyperlink ref="K13" r:id="rId10" xr:uid="{D033C0A1-9814-4F93-92DF-619E7AB878C2}"/>
-    <hyperlink ref="K14" r:id="rId11" xr:uid="{0FAF7990-F61B-4D8E-A714-CFA3171EECB6}"/>
-    <hyperlink ref="K15" r:id="rId12" xr:uid="{72AE2AF8-415B-4915-995F-FE6454B0FFAE}"/>
-    <hyperlink ref="K16" r:id="rId13" xr:uid="{2204255B-7EBE-49D2-A061-922D2614CC99}"/>
-    <hyperlink ref="K17" r:id="rId14" xr:uid="{8500C80C-9BC5-412D-9C9E-FBDA2A0FE8B1}"/>
-    <hyperlink ref="K18" r:id="rId15" xr:uid="{E14A85A9-E946-4138-917F-36F4442693A5}"/>
-    <hyperlink ref="K19" r:id="rId16" xr:uid="{8CD9E8B6-2B87-496C-B578-E48C4A2EC840}"/>
-    <hyperlink ref="K20" r:id="rId17" xr:uid="{5BEA3877-D01F-4D03-8B3A-E33F5AF1CDCF}"/>
-    <hyperlink ref="K21" r:id="rId18" xr:uid="{98EA4E1C-3105-4C75-9936-9ED87E64BE2A}"/>
-    <hyperlink ref="K22" r:id="rId19" xr:uid="{5A7B16BB-144F-4034-9E94-9D2A5162816D}"/>
-    <hyperlink ref="K7" r:id="rId20" xr:uid="{310EB668-111D-4FCB-B7B7-662F59FEA149}"/>
-    <hyperlink ref="K8" r:id="rId21" xr:uid="{E668A233-23AE-43B0-834C-B57B7E752813}"/>
+    <hyperlink ref="K7" r:id="rId6" xr:uid="{310EB668-111D-4FCB-B7B7-662F59FEA149}"/>
+    <hyperlink ref="K8" r:id="rId7" xr:uid="{E668A233-23AE-43B0-834C-B57B7E752813}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
